--- a/Other/赠礼套装便利工具1.21.xlsx
+++ b/Other/赠礼套装便利工具1.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vesugier\Desktop\GenShin-Tool\Other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F5F762-BA70-4813-BE6C-26381721CB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07555142-63D2-48D8-8964-88A197167266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-945" yWindow="435" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="12" r:id="rId1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2691" uniqueCount="413">
   <si>
     <t>套装名称</t>
   </si>
@@ -1528,28 +1528,7 @@
     <t>更改星级描述错误，添加首行锁定</t>
   </si>
   <si>
-    <t>https://wwn.lanzoul.com/b030s2ahg
-1lxw</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>华丽</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>珍贵</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇馈</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>精致</t>
+    <t>密码：1lxw</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -1557,7 +1536,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1570,12 +1549,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1583,6 +1564,7 @@
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1591,12 +1573,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1604,6 +1588,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1611,6 +1596,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1619,6 +1605,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1627,6 +1614,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1635,6 +1623,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1643,6 +1632,7 @@
       <sz val="14"/>
       <color theme="8" tint="0.39997558519241921"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1651,6 +1641,7 @@
       <sz val="14"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1659,6 +1650,7 @@
       <sz val="14"/>
       <color rgb="FF7030A0"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1667,6 +1659,7 @@
       <sz val="14"/>
       <color theme="9" tint="-0.499984740745262"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1675,12 +1668,7 @@
       <sz val="14"/>
       <color rgb="FF00B050"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1692,8 +1680,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1738,7 +1725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1820,96 +1807,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1919,7 +1816,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2037,39 +1934,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2082,6 +1961,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3108,10 +2990,10 @@
       <c r="B2" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="51">
-        <v>1</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="41">
+        <v>1</v>
+      </c>
+      <c r="D2" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E2" s="15" t="str">
@@ -3149,8 +3031,8 @@
       <c r="B3" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="15" t="str">
         <f>HYPERLINK("#摆设!萃华木臻品书架","萃华木臻品书架")</f>
         <v>萃华木臻品书架</v>
@@ -3186,8 +3068,8 @@
       <c r="B4" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="15" t="str">
         <f>HYPERLINK("#摆设!萃华木经济书架","萃华木经济书架")</f>
         <v>萃华木经济书架</v>
@@ -3223,8 +3105,8 @@
       <c r="B5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="15" t="str">
         <f>HYPERLINK("#摆设!「司书的宝库」","「司书的宝库」")</f>
         <v>「司书的宝库」</v>
@@ -3260,8 +3142,8 @@
       <c r="B6" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="15" t="str">
         <f>HYPERLINK("#摆设!骑士团的办公桌","骑士团的办公桌")</f>
         <v>骑士团的办公桌</v>
@@ -3297,8 +3179,8 @@
       <c r="B7" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="15" t="str">
         <f>HYPERLINK("#摆设!柔软的会客厅沙发","柔软的会客厅沙发")</f>
         <v>柔软的会客厅沙发</v>
@@ -3334,8 +3216,8 @@
       <c r="B8" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="15" t="str">
         <f>HYPERLINK("#摆设!「晴空蓝的午后」","「晴空蓝的午后」")</f>
         <v>「晴空蓝的午后」</v>
@@ -3371,8 +3253,8 @@
       <c r="B9" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="15" t="str">
         <f>HYPERLINK("#摆设!松木朱漆圆凳","松木朱漆圆凳")</f>
         <v>松木朱漆圆凳</v>
@@ -3408,8 +3290,8 @@
       <c r="B10" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="15" t="str">
         <f>HYPERLINK("#摆设!蒙德地毯—「明红的热忱」","蒙德地毯—「明红的热忱」")</f>
         <v>蒙德地毯—「明红的热忱」</v>
@@ -3445,8 +3327,8 @@
       <c r="B11" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="15" t="str">
         <f>HYPERLINK("#摆设!绿植盆栽—「澄澈的清风」","绿植盆栽—「澄澈的清风」")</f>
         <v>绿植盆栽—「澄澈的清风」</v>
@@ -3482,8 +3364,8 @@
       <c r="B12" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="15" t="str">
         <f>HYPERLINK("#摆设!「书信的礼节」","「书信的礼节」")</f>
         <v>「书信的礼节」</v>
@@ -3519,8 +3401,8 @@
       <c r="B13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="15" t="str">
         <f>HYPERLINK("#摆设!金色三重烛台","金色三重烛台")</f>
         <v>金色三重烛台</v>
@@ -3570,10 +3452,10 @@
       <c r="B15" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="51">
+      <c r="C15" s="41">
         <v>2</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="44" t="s">
         <v>104</v>
       </c>
       <c r="E15" s="15" t="str">
@@ -3611,8 +3493,8 @@
       <c r="B16" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="15" t="str">
         <f>HYPERLINK("#摆设!厚重的图书馆长桌","厚重的图书馆长桌")</f>
         <v>厚重的图书馆长桌</v>
@@ -3648,8 +3530,8 @@
       <c r="B17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="15" t="str">
         <f>HYPERLINK("#摆设!骑士团的办公桌","骑士团的办公桌")</f>
         <v>骑士团的办公桌</v>
@@ -3685,8 +3567,8 @@
       <c r="B18" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="15" t="str">
         <f>HYPERLINK("#摆设!稳固的桦木梳妆台","稳固的桦木梳妆台")</f>
         <v>稳固的桦木梳妆台</v>
@@ -3722,8 +3604,8 @@
       <c r="B19" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="15" t="str">
         <f>HYPERLINK("#摆设!柔风加护的床榻","柔风加护的床榻")</f>
         <v>柔风加护的床榻</v>
@@ -3759,8 +3641,8 @@
       <c r="B20" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="15" t="str">
         <f>HYPERLINK("#摆设!「晴空蓝的午后」","「晴空蓝的午后」")</f>
         <v>「晴空蓝的午后」</v>
@@ -3796,8 +3678,8 @@
       <c r="B21" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="15" t="str">
         <f>HYPERLINK("#摆设!松木朱漆圆凳","松木朱漆圆凳")</f>
         <v>松木朱漆圆凳</v>
@@ -3833,8 +3715,8 @@
       <c r="B22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="15" t="str">
         <f>HYPERLINK("#摆设!桦木双屉床头柜","桦木双屉床头柜")</f>
         <v>桦木双屉床头柜</v>
@@ -3870,8 +3752,8 @@
       <c r="B23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="15" t="str">
         <f>HYPERLINK("#摆设!蒙德地毯—「明红的热忱」","蒙德地毯—「明红的热忱」")</f>
         <v>蒙德地毯—「明红的热忱」</v>
@@ -3907,8 +3789,8 @@
       <c r="B24" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="15" t="str">
         <f>HYPERLINK("#摆设!贝壳灯罩硬质台灯","贝壳灯罩硬质台灯")</f>
         <v>贝壳灯罩硬质台灯</v>
@@ -3944,8 +3826,8 @@
       <c r="B25" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="15" t="str">
         <f>HYPERLINK("#摆设!绿植盆栽—「澄澈的清风」","绿植盆栽—「澄澈的清风」")</f>
         <v>绿植盆栽—「澄澈的清风」</v>
@@ -3981,8 +3863,8 @@
       <c r="B26" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="15" t="str">
         <f>HYPERLINK("#摆设!花卉瓶栽—「盛放的曙红」","花卉瓶栽—「盛放的曙红」")</f>
         <v>花卉瓶栽—「盛放的曙红」</v>
@@ -4018,8 +3900,8 @@
       <c r="B27" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="15" t="str">
         <f>HYPERLINK("#摆设!精巧的沙漏摆件","精巧的沙漏摆件")</f>
         <v>精巧的沙漏摆件</v>
@@ -4055,8 +3937,8 @@
       <c r="B28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="15" t="str">
         <f>HYPERLINK("#摆设!金色三重烛台","金色三重烛台")</f>
         <v>金色三重烛台</v>
@@ -4106,10 +3988,10 @@
       <c r="B30" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C30" s="41">
         <v>3</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="44" t="s">
         <v>110</v>
       </c>
       <c r="E30" s="15" t="str">
@@ -4147,8 +4029,8 @@
       <c r="B31" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="50"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="42"/>
       <c r="E31" s="15" t="str">
         <f>HYPERLINK("#摆设!朱漆垂香木百宝阁","朱漆垂香木百宝阁")</f>
         <v>朱漆垂香木百宝阁</v>
@@ -4184,8 +4066,8 @@
       <c r="B32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="50"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="15" t="str">
         <f>HYPERLINK("#摆设!垂香木商铺立柜","垂香木商铺立柜")</f>
         <v>垂香木商铺立柜</v>
@@ -4221,8 +4103,8 @@
       <c r="B33" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="48"/>
-      <c r="D33" s="50"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="42"/>
       <c r="E33" s="15" t="str">
         <f>HYPERLINK("#摆设!木纹雅致的书法桌案","木纹雅致的书法桌案")</f>
         <v>木纹雅致的书法桌案</v>
@@ -4258,8 +4140,8 @@
       <c r="B34" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="50"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
       <c r="E34" s="15" t="str">
         <f>HYPERLINK("#摆设!松木靠背茶椅","松木靠背茶椅")</f>
         <v>松木靠背茶椅</v>
@@ -4295,8 +4177,8 @@
       <c r="B35" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="50"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="42"/>
       <c r="E35" s="15" t="str">
         <f>HYPERLINK("#摆设!松木朱漆圆凳","松木朱漆圆凳")</f>
         <v>松木朱漆圆凳</v>
@@ -4332,8 +4214,8 @@
       <c r="B36" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="50"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="42"/>
       <c r="E36" s="15" t="str">
         <f>HYPERLINK("#摆设!松木折屏—「云来帆影」","松木折屏—「云来帆影」")</f>
         <v>松木折屏—「云来帆影」</v>
@@ -4369,8 +4251,8 @@
       <c r="B37" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="50"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="42"/>
       <c r="E37" s="15" t="str">
         <f>HYPERLINK("#摆设!迎宾地毯—「惠然之顾」","迎宾地毯—「惠然之顾」")</f>
         <v>迎宾地毯—「惠然之顾」</v>
@@ -4406,8 +4288,8 @@
       <c r="B38" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="50"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="15" t="str">
         <f>HYPERLINK("#摆设!琉璃亭却砂木立灯","琉璃亭却砂木立灯")</f>
         <v>琉璃亭却砂木立灯</v>
@@ -4443,8 +4325,8 @@
       <c r="B39" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="50"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="42"/>
       <c r="E39" s="15" t="str">
         <f>HYPERLINK("#摆设!绿植盆栽—「澄澈的清风」","绿植盆栽—「澄澈的清风」")</f>
         <v>绿植盆栽—「澄澈的清风」</v>
@@ -4480,8 +4362,8 @@
       <c r="B40" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="50"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="42"/>
       <c r="E40" s="15" t="str">
         <f>HYPERLINK("#摆设!绿植盆栽—「松青尺树上」","绿植盆栽—「松青尺树上」")</f>
         <v>绿植盆栽—「松青尺树上」</v>
@@ -4517,8 +4399,8 @@
       <c r="B41" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="50"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="15" t="str">
         <f>HYPERLINK("#摆设!纸墨笔砚—「临池学书」","纸墨笔砚—「临池学书」")</f>
         <v>纸墨笔砚—「临池学书」</v>
@@ -4568,10 +4450,10 @@
       <c r="B43" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="51">
+      <c r="C43" s="41">
         <v>4</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E43" s="15" t="str">
@@ -4609,8 +4491,8 @@
       <c r="B44" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
       <c r="E44" s="15" t="str">
         <f>HYPERLINK("#摆设!朱漆垂香木百宝阁","朱漆垂香木百宝阁")</f>
         <v>朱漆垂香木百宝阁</v>
@@ -4646,8 +4528,8 @@
       <c r="B45" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
       <c r="E45" s="15" t="str">
         <f>HYPERLINK("#摆设!松木方形茶桌","松木方形茶桌")</f>
         <v>松木方形茶桌</v>
@@ -4683,8 +4565,8 @@
       <c r="B46" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="15" t="str">
         <f>HYPERLINK("#摆设!烟霞云梦榻","烟霞云梦榻")</f>
         <v>烟霞云梦榻</v>
@@ -4720,8 +4602,8 @@
       <c r="B47" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
       <c r="E47" s="15" t="str">
         <f>HYPERLINK("#摆设!松木靠背茶椅","松木靠背茶椅")</f>
         <v>松木靠背茶椅</v>
@@ -4757,8 +4639,8 @@
       <c r="B48" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
       <c r="E48" s="15" t="str">
         <f>HYPERLINK("#摆设!松木折屏—「云来帆影」","松木折屏—「云来帆影」")</f>
         <v>松木折屏—「云来帆影」</v>
@@ -4794,8 +4676,8 @@
       <c r="B49" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
       <c r="E49" s="15" t="str">
         <f>HYPERLINK("#摆设!却砂木金纹床头柜","却砂木金纹床头柜")</f>
         <v>却砂木金纹床头柜</v>
@@ -4831,8 +4713,8 @@
       <c r="B50" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="15" t="str">
         <f>HYPERLINK("#摆设!迎宾地毯—「惠然之顾」","迎宾地毯—「惠然之顾」")</f>
         <v>迎宾地毯—「惠然之顾」</v>
@@ -4868,8 +4750,8 @@
       <c r="B51" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
       <c r="E51" s="15" t="str">
         <f>HYPERLINK("#摆设!琉璃亭却砂木立灯","琉璃亭却砂木立灯")</f>
         <v>琉璃亭却砂木立灯</v>
@@ -4905,8 +4787,8 @@
       <c r="B52" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
       <c r="E52" s="15" t="str">
         <f>HYPERLINK("#摆设!贝壳灯罩硬质台灯","贝壳灯罩硬质台灯")</f>
         <v>贝壳灯罩硬质台灯</v>
@@ -4942,8 +4824,8 @@
       <c r="B53" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
       <c r="E53" s="15" t="str">
         <f>HYPERLINK("#摆设!绿植盆栽—「澄澈的清风」","绿植盆栽—「澄澈的清风」")</f>
         <v>绿植盆栽—「澄澈的清风」</v>
@@ -4979,8 +4861,8 @@
       <c r="B54" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
       <c r="E54" s="15" t="str">
         <f>HYPERLINK("#摆设!白瓷茶具—「怀质抱真」","白瓷茶具—「怀质抱真」")</f>
         <v>白瓷茶具—「怀质抱真」</v>
@@ -5030,10 +4912,10 @@
       <c r="B56" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="41">
         <v>5</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="44" t="s">
         <v>112</v>
       </c>
       <c r="E56" s="15" t="str">
@@ -5071,8 +4953,8 @@
       <c r="B57" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
       <c r="E57" s="15" t="str">
         <f>HYPERLINK("#摆设!「司书的宝库」","「司书的宝库」")</f>
         <v>「司书的宝库」</v>
@@ -5108,8 +4990,8 @@
       <c r="B58" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
       <c r="E58" s="15" t="str">
         <f>HYPERLINK("#摆设!厚重的图书馆长桌","厚重的图书馆长桌")</f>
         <v>厚重的图书馆长桌</v>
@@ -5145,8 +5027,8 @@
       <c r="B59" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
       <c r="E59" s="15" t="str">
         <f>HYPERLINK("#摆设!骑士团的办公桌","骑士团的办公桌")</f>
         <v>骑士团的办公桌</v>
@@ -5182,8 +5064,8 @@
       <c r="B60" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
       <c r="E60" s="15" t="str">
         <f>HYPERLINK("#摆设!「晴空蓝的午后」","「晴空蓝的午后」")</f>
         <v>「晴空蓝的午后」</v>
@@ -5219,8 +5101,8 @@
       <c r="B61" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
       <c r="E61" s="15" t="str">
         <f>HYPERLINK("#摆设!「坚定意志」","「坚定意志」")</f>
         <v>「坚定意志」</v>
@@ -5256,8 +5138,8 @@
       <c r="B62" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
       <c r="E62" s="15" t="str">
         <f>HYPERLINK("#摆设!蒙德地毯—「明红的热忱」","蒙德地毯—「明红的热忱」")</f>
         <v>蒙德地毯—「明红的热忱」</v>
@@ -5293,8 +5175,8 @@
       <c r="B63" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
       <c r="E63" s="15" t="str">
         <f>HYPERLINK("#摆设!绿植盆栽—「澄澈的清风」","绿植盆栽—「澄澈的清风」")</f>
         <v>绿植盆栽—「澄澈的清风」</v>
@@ -5330,8 +5212,8 @@
       <c r="B64" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C64" s="50"/>
-      <c r="D64" s="50"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="15" t="str">
         <f>HYPERLINK("#摆设!整齐叠放的书本","整齐叠放的书本")</f>
         <v>整齐叠放的书本</v>
@@ -5367,8 +5249,8 @@
       <c r="B65" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="15" t="str">
         <f>HYPERLINK("#摆设!「学者的倦怠」","「学者的倦怠」")</f>
         <v>「学者的倦怠」</v>
@@ -5404,8 +5286,8 @@
       <c r="B66" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C66" s="50"/>
-      <c r="D66" s="50"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
       <c r="E66" s="15" t="str">
         <f>HYPERLINK("#摆设!精巧的沙漏摆件","精巧的沙漏摆件")</f>
         <v>精巧的沙漏摆件</v>
@@ -5441,8 +5323,8 @@
       <c r="B67" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
       <c r="E67" s="15" t="str">
         <f>HYPERLINK("#摆设!炼金装置—「水火之间」","炼金装置—「水火之间」")</f>
         <v>炼金装置—「水火之间」</v>
@@ -5478,8 +5360,8 @@
       <c r="B68" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C68" s="50"/>
-      <c r="D68" s="50"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
       <c r="E68" s="15" t="str">
         <f>HYPERLINK("#摆设!炼金器件—「尘埃的重量」","炼金器件—「尘埃的重量」")</f>
         <v>炼金器件—「尘埃的重量」</v>
@@ -5529,10 +5411,10 @@
       <c r="B70" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C70" s="51">
+      <c r="C70" s="41">
         <v>6</v>
       </c>
-      <c r="D70" s="47" t="s">
+      <c r="D70" s="44" t="s">
         <v>113</v>
       </c>
       <c r="E70" s="15" t="str">
@@ -5570,8 +5452,8 @@
       <c r="B71" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C71" s="50"/>
-      <c r="D71" s="50"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
       <c r="E71" s="15" t="str">
         <f>HYPERLINK("#摆设!组合式杉木货柜","组合式杉木货柜")</f>
         <v>组合式杉木货柜</v>
@@ -5607,8 +5489,8 @@
       <c r="B72" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C72" s="50"/>
-      <c r="D72" s="50"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
       <c r="E72" s="15" t="str">
         <f>HYPERLINK("#摆设!便携炉灶","便携炉灶")</f>
         <v>便携炉灶</v>
@@ -5644,8 +5526,8 @@
       <c r="B73" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C73" s="50"/>
-      <c r="D73" s="50"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
       <c r="E73" s="15" t="str">
         <f>HYPERLINK("#摆设!稳固的桦木梳妆台","稳固的桦木梳妆台")</f>
         <v>稳固的桦木梳妆台</v>
@@ -5681,8 +5563,8 @@
       <c r="B74" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
       <c r="E74" s="15" t="str">
         <f>HYPERLINK("#摆设!松木餐椅","松木餐椅")</f>
         <v>松木餐椅</v>
@@ -5718,8 +5600,8 @@
       <c r="B75" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="50"/>
-      <c r="D75" s="50"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
       <c r="E75" s="15" t="str">
         <f>HYPERLINK("#摆设!恒亮不熄的提灯","恒亮不熄的提灯")</f>
         <v>恒亮不熄的提灯</v>
@@ -5755,8 +5637,8 @@
       <c r="B76" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
       <c r="E76" s="15" t="str">
         <f>HYPERLINK("#摆设!菱形桌布的长桌","菱形桌布的长桌")</f>
         <v>菱形桌布的长桌</v>
@@ -5803,10 +5685,10 @@
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
-      <c r="C78" s="51">
+      <c r="C78" s="41">
         <v>7</v>
       </c>
-      <c r="D78" s="47" t="s">
+      <c r="D78" s="44" t="s">
         <v>116</v>
       </c>
       <c r="E78" s="15" t="str">
@@ -5840,8 +5722,8 @@
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="15" t="str">
         <f>HYPERLINK("#摆设!梦见木「冷暖一桌」被炉","梦见木「冷暖一桌」被炉")</f>
         <v>梦见木「冷暖一桌」被炉</v>
@@ -5873,8 +5755,8 @@
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="48"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="15" t="str">
         <f>HYPERLINK("#摆设!梦见木「樱眠」床榻","梦见木「樱眠」床榻")</f>
         <v>梦见木「樱眠」床榻</v>
@@ -5906,8 +5788,8 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
       <c r="E81" s="15" t="str">
         <f>HYPERLINK("#摆设!梦见木「礼待」着物架","梦见木「礼待」着物架")</f>
         <v>梦见木「礼待」着物架</v>
@@ -5939,8 +5821,8 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
       <c r="E82" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室坐垫—「晚禾织」","茶室坐垫—「晚禾织」")</f>
         <v>茶室坐垫—「晚禾织」</v>
@@ -5972,8 +5854,8 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="48"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
       <c r="E83" s="15" t="str">
         <f>HYPERLINK("#摆设!梦见木「入画」折屏","梦见木「入画」折屏")</f>
         <v>梦见木「入画」折屏</v>
@@ -6005,8 +5887,8 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="48"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="15" t="str">
         <f>HYPERLINK("#摆设!「铸瓷正则」","「铸瓷正则」")</f>
         <v>「铸瓷正则」</v>
@@ -6038,8 +5920,8 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
       <c r="E85" s="15" t="str">
         <f>HYPERLINK("#摆设!驱鬼之羽屏","驱鬼之羽屏")</f>
         <v>驱鬼之羽屏</v>
@@ -6071,8 +5953,8 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
       <c r="E86" s="15" t="str">
         <f>HYPERLINK("#摆设!「赤铁珊瑚」","「赤铁珊瑚」")</f>
         <v>「赤铁珊瑚」</v>
@@ -6119,10 +6001,10 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
-      <c r="C88" s="51">
+      <c r="C88" s="41">
         <v>8</v>
       </c>
-      <c r="D88" s="47" t="s">
+      <c r="D88" s="44" t="s">
         <v>118</v>
       </c>
       <c r="E88" s="15" t="str">
@@ -6156,8 +6038,8 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
       <c r="E89" s="15" t="str">
         <f>HYPERLINK("#摆设!枫木仪鼓—「宴奏」","枫木仪鼓—「宴奏」")</f>
         <v>枫木仪鼓—「宴奏」</v>
@@ -6189,8 +6071,8 @@
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
       <c r="E90" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室屏风—「垢身金心」","茶室屏风—「垢身金心」")</f>
         <v>茶室屏风—「垢身金心」</v>
@@ -6222,8 +6104,8 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="48"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="15" t="str">
         <f>HYPERLINK("#摆设!宗传刀架—「四常法」","宗传刀架—「四常法」")</f>
         <v>宗传刀架—「四常法」</v>
@@ -6255,8 +6137,8 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
       <c r="E92" s="15" t="str">
         <f>HYPERLINK("#摆设!旗本重铠—「影阵玄甲」","旗本重铠—「影阵玄甲」")</f>
         <v>旗本重铠—「影阵玄甲」</v>
@@ -6288,8 +6170,8 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
       <c r="E93" s="15" t="str">
         <f>HYPERLINK("#摆设!枫木地灯—「照澄」","枫木地灯—「照澄」")</f>
         <v>枫木地灯—「照澄」</v>
@@ -6321,8 +6203,8 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="48"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
       <c r="E94" s="15" t="str">
         <f>HYPERLINK("#摆设!破邪之弦镝","破邪之弦镝")</f>
         <v>破邪之弦镝</v>
@@ -6369,10 +6251,10 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
-      <c r="C96" s="51">
+      <c r="C96" s="41">
         <v>9</v>
       </c>
-      <c r="D96" s="47" t="s">
+      <c r="D96" s="44" t="s">
         <v>119</v>
       </c>
       <c r="E96" s="15" t="str">
@@ -6402,15 +6284,15 @@
         <v>120</v>
       </c>
       <c r="M96" s="20"/>
-      <c r="N96" s="49" t="s">
+      <c r="N96" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="48"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="15" t="str">
         <f>HYPERLINK("#摆设!枫木书柜—「千卷柜藏」","枫木书柜—「千卷柜藏」")</f>
         <v>枫木书柜—「千卷柜藏」</v>
@@ -6438,13 +6320,13 @@
         <v>120</v>
       </c>
       <c r="M97" s="20"/>
-      <c r="N97" s="49"/>
+      <c r="N97" s="46"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="48"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
       <c r="E98" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室长桌—「座无隙」","茶室长桌—「座无隙」")</f>
         <v>茶室长桌—「座无隙」</v>
@@ -6472,13 +6354,13 @@
         <v>120</v>
       </c>
       <c r="M98" s="20"/>
-      <c r="N98" s="49"/>
+      <c r="N98" s="46"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
       <c r="E99" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室坐垫—「晚禾织」","茶室坐垫—「晚禾织」")</f>
         <v>茶室坐垫—「晚禾织」</v>
@@ -6506,13 +6388,13 @@
         <v>117</v>
       </c>
       <c r="M99" s="20"/>
-      <c r="N99" s="49"/>
+      <c r="N99" s="46"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室屏风—「垢身金心」","茶室屏风—「垢身金心」")</f>
         <v>茶室屏风—「垢身金心」</v>
@@ -6540,13 +6422,13 @@
         <v>117</v>
       </c>
       <c r="M100" s="20"/>
-      <c r="N100" s="49"/>
+      <c r="N100" s="46"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48"/>
+      <c r="C101" s="43"/>
+      <c r="D101" s="43"/>
       <c r="E101" s="15" t="str">
         <f>HYPERLINK("#摆设!枫木地灯—「照澄」","枫木地灯—「照澄」")</f>
         <v>枫木地灯—「照澄」</v>
@@ -6574,13 +6456,13 @@
         <v>117</v>
       </c>
       <c r="M101" s="20"/>
-      <c r="N101" s="49"/>
+      <c r="N101" s="46"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="43"/>
       <c r="E102" s="15" t="str">
         <f>HYPERLINK("#摆设!「铸瓷正则」","「铸瓷正则」")</f>
         <v>「铸瓷正则」</v>
@@ -6608,13 +6490,13 @@
         <v>117</v>
       </c>
       <c r="M102" s="20"/>
-      <c r="N102" s="49"/>
+      <c r="N102" s="46"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
+      <c r="C103" s="43"/>
+      <c r="D103" s="43"/>
       <c r="E103" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室烛台—「无味火」","茶室烛台—「无味火」")</f>
         <v>茶室烛台—「无味火」</v>
@@ -6642,13 +6524,13 @@
         <v>120</v>
       </c>
       <c r="M103" s="20"/>
-      <c r="N103" s="49"/>
+      <c r="N103" s="46"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="15" t="str">
         <f>HYPERLINK("#摆设!纸墨笔砚—「正定笔锋」","纸墨笔砚—「正定笔锋」")</f>
         <v>纸墨笔砚—「正定笔锋」</v>
@@ -6676,13 +6558,13 @@
         <v>120</v>
       </c>
       <c r="M104" s="20"/>
-      <c r="N104" s="49"/>
+      <c r="N104" s="46"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="48"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43"/>
       <c r="E105" s="15" t="str">
         <f>HYPERLINK("#摆设!「赤铁珊瑚」","「赤铁珊瑚」")</f>
         <v>「赤铁珊瑚」</v>
@@ -6710,7 +6592,7 @@
         <v>117</v>
       </c>
       <c r="M105" s="20"/>
-      <c r="N105" s="49"/>
+      <c r="N105" s="46"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
@@ -6731,10 +6613,10 @@
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
-      <c r="C107" s="51">
+      <c r="C107" s="41">
         <v>10</v>
       </c>
-      <c r="D107" s="47" t="s">
+      <c r="D107" s="44" t="s">
         <v>122</v>
       </c>
       <c r="E107" s="15" t="str">
@@ -6768,8 +6650,8 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="48"/>
+      <c r="C108" s="43"/>
+      <c r="D108" s="43"/>
       <c r="E108" s="15" t="str">
         <f>HYPERLINK("#摆设!孔雀木「不染」橱柜","孔雀木「不染」橱柜")</f>
         <v>孔雀木「不染」橱柜</v>
@@ -6801,8 +6683,8 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="48"/>
+      <c r="C109" s="43"/>
+      <c r="D109" s="43"/>
       <c r="E109" s="15" t="str">
         <f>HYPERLINK("#摆设!孔雀木「石定」茶桌","孔雀木「石定」茶桌")</f>
         <v>孔雀木「石定」茶桌</v>
@@ -6834,8 +6716,8 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="48"/>
+      <c r="C110" s="43"/>
+      <c r="D110" s="43"/>
       <c r="E110" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室柜台—「十四丸」","茶室柜台—「十四丸」")</f>
         <v>茶室柜台—「十四丸」</v>
@@ -6867,8 +6749,8 @@
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="48"/>
+      <c r="C111" s="43"/>
+      <c r="D111" s="43"/>
       <c r="E111" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室圆凳—「折痛辞」","茶室圆凳—「折痛辞」")</f>
         <v>茶室圆凳—「折痛辞」</v>
@@ -6900,8 +6782,8 @@
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="48"/>
+      <c r="C112" s="43"/>
+      <c r="D112" s="43"/>
       <c r="E112" s="15" t="str">
         <f>HYPERLINK("#摆设!「素守之瓶」","「素守之瓶」")</f>
         <v>「素守之瓶」</v>
@@ -6933,8 +6815,8 @@
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
-      <c r="C113" s="48"/>
-      <c r="D113" s="48"/>
+      <c r="C113" s="43"/>
+      <c r="D113" s="43"/>
       <c r="E113" s="15" t="str">
         <f>HYPERLINK("#摆设!「茶烟笼白榻」","「茶烟笼白榻」")</f>
         <v>「茶烟笼白榻」</v>
@@ -6966,8 +6848,8 @@
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
       <c r="E114" s="15" t="str">
         <f>HYPERLINK("#摆设!茶室器物—「锁香笼」","茶室器物—「锁香笼」")</f>
         <v>茶室器物—「锁香笼」</v>
@@ -6999,8 +6881,8 @@
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="B115" s="13"/>
-      <c r="C115" s="48"/>
-      <c r="D115" s="48"/>
+      <c r="C115" s="43"/>
+      <c r="D115" s="43"/>
       <c r="E115" s="15" t="str">
         <f>HYPERLINK("#摆设!驱鬼之羽屏","驱鬼之羽屏")</f>
         <v>驱鬼之羽屏</v>
@@ -7032,8 +6914,8 @@
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="13"/>
-      <c r="C116" s="48"/>
-      <c r="D116" s="48"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="43"/>
       <c r="E116" s="15" t="str">
         <f>HYPERLINK("#摆设!孔雀木「并提」层叠木匣","孔雀木「并提」层叠木匣")</f>
         <v>孔雀木「并提」层叠木匣</v>
@@ -7084,10 +6966,10 @@
       <c r="B118" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C118" s="51">
+      <c r="C118" s="41">
         <v>11</v>
       </c>
-      <c r="D118" s="47" t="s">
+      <c r="D118" s="44" t="s">
         <v>125</v>
       </c>
       <c r="E118" s="15" t="str">
@@ -7125,8 +7007,8 @@
       <c r="B119" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
+      <c r="C119" s="42"/>
+      <c r="D119" s="42"/>
       <c r="E119" s="15" t="str">
         <f>HYPERLINK("#摆设!纤拳石","纤拳石")</f>
         <v>纤拳石</v>
@@ -7162,8 +7044,8 @@
       <c r="B120" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C120" s="50"/>
-      <c r="D120" s="50"/>
+      <c r="C120" s="42"/>
+      <c r="D120" s="42"/>
       <c r="E120" s="15" t="str">
         <f>HYPERLINK("#摆设!茁壮的萃华树","茁壮的萃华树")</f>
         <v>茁壮的萃华树</v>
@@ -7199,8 +7081,8 @@
       <c r="B121" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C121" s="50"/>
-      <c r="D121" s="50"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="42"/>
       <c r="E121" s="15" t="str">
         <f>HYPERLINK("#摆设!青衫景铄","青衫景铄")</f>
         <v>青衫景铄</v>
@@ -7236,8 +7118,8 @@
       <c r="B122" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C122" s="50"/>
-      <c r="D122" s="50"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
       <c r="E122" s="15" t="str">
         <f>HYPERLINK("#摆设!杉木置物架","杉木置物架")</f>
         <v>杉木置物架</v>
@@ -7273,8 +7155,8 @@
       <c r="B123" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C123" s="50"/>
-      <c r="D123" s="50"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="42"/>
       <c r="E123" s="15" t="str">
         <f>HYPERLINK("#摆设!杉木武器架","杉木武器架")</f>
         <v>杉木武器架</v>
@@ -7310,8 +7192,8 @@
       <c r="B124" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
       <c r="E124" s="15" t="str">
         <f>HYPERLINK("#摆设!硬木兵戈架","硬木兵戈架")</f>
         <v>硬木兵戈架</v>
@@ -7347,8 +7229,8 @@
       <c r="B125" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C125" s="50"/>
-      <c r="D125" s="50"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="42"/>
       <c r="E125" s="15" t="str">
         <f>HYPERLINK("#摆设!旧式水井","旧式水井")</f>
         <v>旧式水井</v>
@@ -7384,8 +7266,8 @@
       <c r="B126" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
       <c r="E126" s="15" t="str">
         <f>HYPERLINK("#摆设!重型杉木锻造桌","重型杉木锻造桌")</f>
         <v>重型杉木锻造桌</v>
@@ -7421,8 +7303,8 @@
       <c r="B127" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C127" s="50"/>
-      <c r="D127" s="50"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
       <c r="E127" s="15" t="str">
         <f>HYPERLINK("#摆设!宽大的松木长桌","宽大的松木长桌")</f>
         <v>宽大的松木长桌</v>
@@ -7472,10 +7354,10 @@
       <c r="B129" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C129" s="51">
+      <c r="C129" s="41">
         <v>12</v>
       </c>
-      <c r="D129" s="47" t="s">
+      <c r="D129" s="44" t="s">
         <v>136</v>
       </c>
       <c r="E129" s="15" t="str">
@@ -7513,8 +7395,8 @@
       <c r="B130" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="50"/>
-      <c r="D130" s="50"/>
+      <c r="C130" s="42"/>
+      <c r="D130" s="42"/>
       <c r="E130" s="15" t="str">
         <f>HYPERLINK("#摆设!古典乡间住宅","古典乡间住宅")</f>
         <v>古典乡间住宅</v>
@@ -7550,8 +7432,8 @@
       <c r="B131" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
       <c r="E131" s="15" t="str">
         <f>HYPERLINK("#摆设!袖珍松木小屋","袖珍松木小屋")</f>
         <v>袖珍松木小屋</v>
@@ -7587,8 +7469,8 @@
       <c r="B132" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
       <c r="E132" s="15" t="str">
         <f>HYPERLINK("#摆设!纤拳石","纤拳石")</f>
         <v>纤拳石</v>
@@ -7624,8 +7506,8 @@
       <c r="B133" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
       <c r="E133" s="15" t="str">
         <f>HYPERLINK("#摆设!「归风的苍色」","「归风的苍色」")</f>
         <v>「归风的苍色」</v>
@@ -7661,8 +7543,8 @@
       <c r="B134" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
       <c r="E134" s="15" t="str">
         <f>HYPERLINK("#摆设!交错放置的杉木货箱","交错放置的杉木货箱")</f>
         <v>交错放置的杉木货箱</v>
@@ -7698,8 +7580,8 @@
       <c r="B135" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
       <c r="E135" s="15" t="str">
         <f>HYPERLINK("#摆设!有序叠放的杉木酒桶","有序叠放的杉木酒桶")</f>
         <v>有序叠放的杉木酒桶</v>
@@ -7735,8 +7617,8 @@
       <c r="B136" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
       <c r="E136" s="15" t="str">
         <f>HYPERLINK("#摆设!沉甸甸的干草卷","沉甸甸的干草卷")</f>
         <v>沉甸甸的干草卷</v>
@@ -7772,8 +7654,8 @@
       <c r="B137" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
       <c r="E137" s="15" t="str">
         <f>HYPERLINK("#摆设!简易货运拖车","简易货运拖车")</f>
         <v>简易货运拖车</v>
@@ -7809,8 +7691,8 @@
       <c r="B138" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="42"/>
       <c r="E138" s="15" t="str">
         <f>HYPERLINK("#摆设!硬顶水井—「但求虚澈」","硬顶水井—「但求虚澈」")</f>
         <v>硬顶水井—「但求虚澈」</v>
@@ -7846,8 +7728,8 @@
       <c r="B139" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="42"/>
       <c r="E139" s="15" t="str">
         <f>HYPERLINK("#摆设!野外松木路灯","野外松木路灯")</f>
         <v>野外松木路灯</v>
@@ -7883,8 +7765,8 @@
       <c r="B140" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
+      <c r="C140" s="42"/>
+      <c r="D140" s="42"/>
       <c r="E140" s="15" t="str">
         <f>HYPERLINK("#摆设!平整的木制长凳","平整的木制长凳")</f>
         <v>平整的木制长凳</v>
@@ -7920,8 +7802,8 @@
       <c r="B141" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
       <c r="E141" s="15" t="str">
         <f>HYPERLINK("#摆设!宽大的松木长桌","宽大的松木长桌")</f>
         <v>宽大的松木长桌</v>
@@ -7971,10 +7853,10 @@
       <c r="B143" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C143" s="51">
+      <c r="C143" s="41">
         <v>13</v>
       </c>
-      <c r="D143" s="47" t="s">
+      <c r="D143" s="44" t="s">
         <v>141</v>
       </c>
       <c r="E143" s="15" t="str">
@@ -8012,8 +7894,8 @@
       <c r="B144" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
       <c r="E144" s="15" t="str">
         <f>HYPERLINK("#摆设!「归风的苍色」","「归风的苍色」")</f>
         <v>「归风的苍色」</v>
@@ -8049,8 +7931,8 @@
       <c r="B145" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C145" s="50"/>
-      <c r="D145" s="50"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
       <c r="E145" s="15" t="str">
         <f>HYPERLINK("#摆设!茁壮的萃华树","茁壮的萃华树")</f>
         <v>茁壮的萃华树</v>
@@ -8086,8 +7968,8 @@
       <c r="B146" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
+      <c r="C146" s="42"/>
+      <c r="D146" s="42"/>
       <c r="E146" s="15" t="str">
         <f>HYPERLINK("#摆设!正逢花期的灌木丛","正逢花期的灌木丛")</f>
         <v>正逢花期的灌木丛</v>
@@ -8123,8 +8005,8 @@
       <c r="B147" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
       <c r="E147" s="15" t="str">
         <f>HYPERLINK("#摆设!青衫景铄","青衫景铄")</f>
         <v>青衫景铄</v>
@@ -8160,8 +8042,8 @@
       <c r="B148" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="42"/>
       <c r="E148" s="15" t="str">
         <f>HYPERLINK("#摆设!石制盏形水池","石制盏形水池")</f>
         <v>石制盏形水池</v>
@@ -8197,8 +8079,8 @@
       <c r="B149" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C149" s="50"/>
-      <c r="D149" s="50"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
       <c r="E149" s="15" t="str">
         <f>HYPERLINK("#摆设!铁艺雕花路灯","铁艺雕花路灯")</f>
         <v>铁艺雕花路灯</v>
@@ -8234,8 +8116,8 @@
       <c r="B150" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C150" s="50"/>
-      <c r="D150" s="50"/>
+      <c r="C150" s="42"/>
+      <c r="D150" s="42"/>
       <c r="E150" s="15" t="str">
         <f>HYPERLINK("#摆设!平整的木制长凳","平整的木制长凳")</f>
         <v>平整的木制长凳</v>
@@ -8271,8 +8153,8 @@
       <c r="B151" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C151" s="50"/>
-      <c r="D151" s="50"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="42"/>
       <c r="E151" s="15" t="str">
         <f>HYPERLINK("#摆设!平整的石制长凳","平整的石制长凳")</f>
         <v>平整的石制长凳</v>
@@ -8322,10 +8204,10 @@
       <c r="B153" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C153" s="51">
+      <c r="C153" s="41">
         <v>14</v>
       </c>
-      <c r="D153" s="47" t="s">
+      <c r="D153" s="44" t="s">
         <v>145</v>
       </c>
       <c r="E153" s="15" t="str">
@@ -8363,8 +8245,8 @@
       <c r="B154" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
       <c r="E154" s="15" t="str">
         <f>HYPERLINK("#摆设!「百味四宫釜」","「百味四宫釜」")</f>
         <v>「百味四宫釜」</v>
@@ -8400,8 +8282,8 @@
       <c r="B155" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C155" s="50"/>
-      <c r="D155" s="50"/>
+      <c r="C155" s="42"/>
+      <c r="D155" s="42"/>
       <c r="E155" s="15" t="str">
         <f>HYPERLINK("#摆设!果蔬摊—「案上田园」","果蔬摊—「案上田园」")</f>
         <v>果蔬摊—「案上田园」</v>
@@ -8437,8 +8319,8 @@
       <c r="B156" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="42"/>
       <c r="E156" s="15" t="str">
         <f>HYPERLINK("#摆设!茁壮的萃华树","茁壮的萃华树")</f>
         <v>茁壮的萃华树</v>
@@ -8474,8 +8356,8 @@
       <c r="B157" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C157" s="50"/>
-      <c r="D157" s="50"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="42"/>
       <c r="E157" s="15" t="str">
         <f>HYPERLINK("#摆设!「猎人的暗哨」","「猎人的暗哨」")</f>
         <v>「猎人的暗哨」</v>
@@ -8511,8 +8393,8 @@
       <c r="B158" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C158" s="50"/>
-      <c r="D158" s="50"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="42"/>
       <c r="E158" s="15" t="str">
         <f>HYPERLINK("#摆设!竹框酒坛—「琼浆待月往」","竹框酒坛—「琼浆待月往」")</f>
         <v>竹框酒坛—「琼浆待月往」</v>
@@ -8548,8 +8430,8 @@
       <c r="B159" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="42"/>
       <c r="E159" s="15" t="str">
         <f>HYPERLINK("#摆设!储物袋—「隐雷退散」","储物袋—「隐雷退散」")</f>
         <v>储物袋—「隐雷退散」</v>
@@ -8585,8 +8467,8 @@
       <c r="B160" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
       <c r="E160" s="15" t="str">
         <f>HYPERLINK("#摆设!果蔬商贩的谨慎","果蔬商贩的谨慎")</f>
         <v>果蔬商贩的谨慎</v>
@@ -8622,8 +8504,8 @@
       <c r="B161" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50"/>
+      <c r="C161" s="42"/>
+      <c r="D161" s="42"/>
       <c r="E161" s="15" t="str">
         <f>HYPERLINK("#摆设!旧式水井","旧式水井")</f>
         <v>旧式水井</v>
@@ -8659,8 +8541,8 @@
       <c r="B162" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C162" s="50"/>
-      <c r="D162" s="50"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="42"/>
       <c r="E162" s="15" t="str">
         <f>HYPERLINK("#摆设!退邪灯—「明照左右」","退邪灯—「明照左右」")</f>
         <v>退邪灯—「明照左右」</v>
@@ -8696,8 +8578,8 @@
       <c r="B163" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C163" s="50"/>
-      <c r="D163" s="50"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
       <c r="E163" s="15" t="str">
         <f>HYPERLINK("#摆设!双重商摊—「运势层层高」","双重商摊—「运势层层高」")</f>
         <v>双重商摊—「运势层层高」</v>
@@ -8733,8 +8615,8 @@
       <c r="B164" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C164" s="50"/>
-      <c r="D164" s="50"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
       <c r="E164" s="15" t="str">
         <f>HYPERLINK("#摆设!竹制露天茶桌","竹制露天茶桌")</f>
         <v>竹制露天茶桌</v>
@@ -8770,8 +8652,8 @@
       <c r="B165" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C165" s="50"/>
-      <c r="D165" s="50"/>
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
       <c r="E165" s="15" t="str">
         <f>HYPERLINK("#摆设!木制露天茶桌","木制露天茶桌")</f>
         <v>木制露天茶桌</v>
@@ -8807,8 +8689,8 @@
       <c r="B166" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C166" s="50"/>
-      <c r="D166" s="50"/>
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
       <c r="E166" s="15" t="str">
         <f>HYPERLINK("#摆设!酒肆货柜—「会须百杯饮」","酒肆货柜—「会须百杯饮」")</f>
         <v>酒肆货柜—「会须百杯饮」</v>
@@ -8844,8 +8726,8 @@
       <c r="B167" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C167" s="50"/>
-      <c r="D167" s="50"/>
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
       <c r="E167" s="15" t="str">
         <f>HYPERLINK("#摆设!垂香木厨房货架","垂香木厨房货架")</f>
         <v>垂香木厨房货架</v>
@@ -8895,10 +8777,10 @@
       <c r="B169" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C169" s="51">
+      <c r="C169" s="41">
         <v>15</v>
       </c>
-      <c r="D169" s="47" t="s">
+      <c r="D169" s="44" t="s">
         <v>146</v>
       </c>
       <c r="E169" s="15" t="str">
@@ -8936,8 +8818,8 @@
       <c r="B170" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C170" s="50"/>
-      <c r="D170" s="50"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
       <c r="E170" s="15" t="str">
         <f>HYPERLINK("#摆设!「行商石门北」","「行商石门北」")</f>
         <v>「行商石门北」</v>
@@ -8973,8 +8855,8 @@
       <c r="B171" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C171" s="50"/>
-      <c r="D171" s="50"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="42"/>
       <c r="E171" s="15" t="str">
         <f>HYPERLINK("#摆设!卷棚果蔬舆","卷棚果蔬舆")</f>
         <v>卷棚果蔬舆</v>
@@ -9010,8 +8892,8 @@
       <c r="B172" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="50"/>
-      <c r="D172" s="50"/>
+      <c r="C172" s="42"/>
+      <c r="D172" s="42"/>
       <c r="E172" s="15" t="str">
         <f>HYPERLINK("#摆设!「云游碧水东」","「云游碧水东」")</f>
         <v>「云游碧水东」</v>
@@ -9047,8 +8929,8 @@
       <c r="B173" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C173" s="50"/>
-      <c r="D173" s="50"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
       <c r="E173" s="15" t="str">
         <f>HYPERLINK("#摆设!竹框酒坛—「琼浆待月往」","竹框酒坛—「琼浆待月往」")</f>
         <v>竹框酒坛—「琼浆待月往」</v>
@@ -9084,8 +8966,8 @@
       <c r="B174" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C174" s="50"/>
-      <c r="D174" s="50"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
       <c r="E174" s="15" t="str">
         <f>HYPERLINK("#摆设!玩具摊—「琳琅生趣」","玩具摊—「琳琅生趣」")</f>
         <v>玩具摊—「琳琅生趣」</v>
@@ -9121,8 +9003,8 @@
       <c r="B175" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C175" s="50"/>
-      <c r="D175" s="50"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
       <c r="E175" s="15" t="str">
         <f>HYPERLINK("#摆设!花伞铺—「簦下千彩」","花伞铺—「簦下千彩」")</f>
         <v>花伞铺—「簦下千彩」</v>
@@ -9158,8 +9040,8 @@
       <c r="B176" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C176" s="50"/>
-      <c r="D176" s="50"/>
+      <c r="C176" s="42"/>
+      <c r="D176" s="42"/>
       <c r="E176" s="15" t="str">
         <f>HYPERLINK("#摆设!储物袋—「隐雷退散」","储物袋—「隐雷退散」")</f>
         <v>储物袋—「隐雷退散」</v>
@@ -9195,8 +9077,8 @@
       <c r="B177" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
+      <c r="C177" s="42"/>
+      <c r="D177" s="42"/>
       <c r="E177" s="15" t="str">
         <f>HYPERLINK("#摆设!果蔬商贩的谨慎","果蔬商贩的谨慎")</f>
         <v>果蔬商贩的谨慎</v>
@@ -9232,8 +9114,8 @@
       <c r="B178" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C178" s="50"/>
-      <c r="D178" s="50"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="42"/>
       <c r="E178" s="15" t="str">
         <f>HYPERLINK("#摆设!退邪灯—「明照左右」","退邪灯—「明照左右」")</f>
         <v>退邪灯—「明照左右」</v>
@@ -9269,8 +9151,8 @@
       <c r="B179" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C179" s="50"/>
-      <c r="D179" s="50"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="42"/>
       <c r="E179" s="15" t="str">
         <f>HYPERLINK("#摆设!双重商摊—「运势层层高」","双重商摊—「运势层层高」")</f>
         <v>双重商摊—「运势层层高」</v>
@@ -9306,8 +9188,8 @@
       <c r="B180" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
       <c r="E180" s="15" t="str">
         <f>HYPERLINK("#摆设!竹制露天茶桌","竹制露天茶桌")</f>
         <v>竹制露天茶桌</v>
@@ -9343,8 +9225,8 @@
       <c r="B181" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C181" s="50"/>
-      <c r="D181" s="50"/>
+      <c r="C181" s="42"/>
+      <c r="D181" s="42"/>
       <c r="E181" s="15" t="str">
         <f>HYPERLINK("#摆设!酒肆货柜—「会须百杯饮」","酒肆货柜—「会须百杯饮」")</f>
         <v>酒肆货柜—「会须百杯饮」</v>
@@ -9380,8 +9262,8 @@
       <c r="B182" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C182" s="50"/>
-      <c r="D182" s="50"/>
+      <c r="C182" s="42"/>
+      <c r="D182" s="42"/>
       <c r="E182" s="15" t="str">
         <f>HYPERLINK("#摆设!抗浪结构双层货盘","抗浪结构双层货盘")</f>
         <v>抗浪结构双层货盘</v>
@@ -9431,10 +9313,10 @@
       <c r="B184" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C184" s="51">
+      <c r="C184" s="41">
         <v>16</v>
       </c>
-      <c r="D184" s="47" t="s">
+      <c r="D184" s="44" t="s">
         <v>148</v>
       </c>
       <c r="E184" s="15" t="str">
@@ -9472,8 +9354,8 @@
       <c r="B185" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C185" s="50"/>
-      <c r="D185" s="50"/>
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
       <c r="E185" s="15" t="str">
         <f>HYPERLINK("#摆设!璃月商铺—「客聚如潮」","璃月商铺—「客聚如潮」")</f>
         <v>璃月商铺—「客聚如潮」</v>
@@ -9509,8 +9391,8 @@
       <c r="B186" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C186" s="50"/>
-      <c r="D186" s="50"/>
+      <c r="C186" s="42"/>
+      <c r="D186" s="42"/>
       <c r="E186" s="15" t="str">
         <f>HYPERLINK("#摆设!璃月民居—「岁不我与」","璃月民居—「岁不我与」")</f>
         <v>璃月民居—「岁不我与」</v>
@@ -9546,8 +9428,8 @@
       <c r="B187" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C187" s="50"/>
-      <c r="D187" s="50"/>
+      <c r="C187" s="42"/>
+      <c r="D187" s="42"/>
       <c r="E187" s="15" t="str">
         <f>HYPERLINK("#摆设!干草货棚","干草货棚")</f>
         <v>干草货棚</v>
@@ -9583,8 +9465,8 @@
       <c r="B188" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C188" s="50"/>
-      <c r="D188" s="50"/>
+      <c r="C188" s="42"/>
+      <c r="D188" s="42"/>
       <c r="E188" s="15" t="str">
         <f>HYPERLINK("#摆设!纤拳石","纤拳石")</f>
         <v>纤拳石</v>
@@ -9620,8 +9502,8 @@
       <c r="B189" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C189" s="50"/>
-      <c r="D189" s="50"/>
+      <c r="C189" s="42"/>
+      <c r="D189" s="42"/>
       <c r="E189" s="15" t="str">
         <f>HYPERLINK("#摆设!「归风的苍色」","「归风的苍色」")</f>
         <v>「归风的苍色」</v>
@@ -9657,8 +9539,8 @@
       <c r="B190" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C190" s="50"/>
-      <c r="D190" s="50"/>
+      <c r="C190" s="42"/>
+      <c r="D190" s="42"/>
       <c r="E190" s="15" t="str">
         <f>HYPERLINK("#摆设!青衫景铄","青衫景铄")</f>
         <v>青衫景铄</v>
@@ -9694,8 +9576,8 @@
       <c r="B191" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C191" s="50"/>
-      <c r="D191" s="50"/>
+      <c r="C191" s="42"/>
+      <c r="D191" s="42"/>
       <c r="E191" s="15" t="str">
         <f>HYPERLINK("#摆设!丛生蝶绿","丛生蝶绿")</f>
         <v>丛生蝶绿</v>
@@ -9731,8 +9613,8 @@
       <c r="B192" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C192" s="50"/>
-      <c r="D192" s="50"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="42"/>
       <c r="E192" s="15" t="str">
         <f>HYPERLINK("#摆设!硬石加固的水井","硬石加固的水井")</f>
         <v>硬石加固的水井</v>
@@ -9768,8 +9650,8 @@
       <c r="B193" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C193" s="50"/>
-      <c r="D193" s="50"/>
+      <c r="C193" s="42"/>
+      <c r="D193" s="42"/>
       <c r="E193" s="15" t="str">
         <f>HYPERLINK("#摆设!退邪灯—「明照左右」","退邪灯—「明照左右」")</f>
         <v>退邪灯—「明照左右」</v>
@@ -9805,8 +9687,8 @@
       <c r="B194" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C194" s="50"/>
-      <c r="D194" s="50"/>
+      <c r="C194" s="42"/>
+      <c r="D194" s="42"/>
       <c r="E194" s="15" t="str">
         <f>HYPERLINK("#摆设!清影灯—「笔锋墨影」","清影灯—「笔锋墨影」")</f>
         <v>清影灯—「笔锋墨影」</v>
@@ -9842,8 +9724,8 @@
       <c r="B195" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C195" s="50"/>
-      <c r="D195" s="50"/>
+      <c r="C195" s="42"/>
+      <c r="D195" s="42"/>
       <c r="E195" s="15" t="str">
         <f>HYPERLINK("#摆设!卸力的松木围栏","卸力的松木围栏")</f>
         <v>卸力的松木围栏</v>
@@ -9879,8 +9761,8 @@
       <c r="B196" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C196" s="50"/>
-      <c r="D196" s="50"/>
+      <c r="C196" s="42"/>
+      <c r="D196" s="42"/>
       <c r="E196" s="15" t="str">
         <f>HYPERLINK("#摆设!大型石制滚磨","大型石制滚磨")</f>
         <v>大型石制滚磨</v>
@@ -9916,8 +9798,8 @@
       <c r="B197" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C197" s="50"/>
-      <c r="D197" s="50"/>
+      <c r="C197" s="42"/>
+      <c r="D197" s="42"/>
       <c r="E197" s="15" t="str">
         <f>HYPERLINK("#摆设!竹制露天茶桌","竹制露天茶桌")</f>
         <v>竹制露天茶桌</v>
@@ -9953,8 +9835,8 @@
       <c r="B198" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C198" s="50"/>
-      <c r="D198" s="50"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
       <c r="E198" s="15" t="str">
         <f>HYPERLINK("#摆设!木制露天茶桌","木制露天茶桌")</f>
         <v>木制露天茶桌</v>
@@ -9990,8 +9872,8 @@
       <c r="B199" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="C199" s="50"/>
-      <c r="D199" s="50"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="42"/>
       <c r="E199" s="15" t="str">
         <f>HYPERLINK("#摆设!抗浪结构双层货盘","抗浪结构双层货盘")</f>
         <v>抗浪结构双层货盘</v>
@@ -10041,10 +9923,10 @@
       <c r="B201" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C201" s="52">
+      <c r="C201" s="45">
         <v>17</v>
       </c>
-      <c r="D201" s="47" t="s">
+      <c r="D201" s="44" t="s">
         <v>153</v>
       </c>
       <c r="E201" s="15" t="str">
@@ -10082,8 +9964,8 @@
       <c r="B202" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C202" s="50"/>
-      <c r="D202" s="50"/>
+      <c r="C202" s="42"/>
+      <c r="D202" s="42"/>
       <c r="E202" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘简易草棚","丘丘简易草棚")</f>
         <v>丘丘简易草棚</v>
@@ -10119,8 +10001,8 @@
       <c r="B203" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C203" s="50"/>
-      <c r="D203" s="50"/>
+      <c r="C203" s="42"/>
+      <c r="D203" s="42"/>
       <c r="E203" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘前哨小屋","丘丘前哨小屋")</f>
         <v>丘丘前哨小屋</v>
@@ -10156,8 +10038,8 @@
       <c r="B204" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C204" s="50"/>
-      <c r="D204" s="50"/>
+      <c r="C204" s="42"/>
+      <c r="D204" s="42"/>
       <c r="E204" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘领袖大殿","丘丘领袖大殿")</f>
         <v>丘丘领袖大殿</v>
@@ -10193,8 +10075,8 @@
       <c r="B205" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C205" s="50"/>
-      <c r="D205" s="50"/>
+      <c r="C205" s="42"/>
+      <c r="D205" s="42"/>
       <c r="E205" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘双层警戒台","丘丘双层警戒台")</f>
         <v>丘丘双层警戒台</v>
@@ -10230,8 +10112,8 @@
       <c r="B206" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C206" s="50"/>
-      <c r="D206" s="50"/>
+      <c r="C206" s="42"/>
+      <c r="D206" s="42"/>
       <c r="E206" s="15" t="str">
         <f>HYPERLINK("#摆设!伏青石","伏青石")</f>
         <v>伏青石</v>
@@ -10267,8 +10149,8 @@
       <c r="B207" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C207" s="50"/>
-      <c r="D207" s="50"/>
+      <c r="C207" s="42"/>
+      <c r="D207" s="42"/>
       <c r="E207" s="15" t="str">
         <f>HYPERLINK("#摆设!纤拳石","纤拳石")</f>
         <v>纤拳石</v>
@@ -10304,8 +10186,8 @@
       <c r="B208" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C208" s="50"/>
-      <c r="D208" s="50"/>
+      <c r="C208" s="42"/>
+      <c r="D208" s="42"/>
       <c r="E208" s="15" t="str">
         <f>HYPERLINK("#摆设!「归风的苍色」","「归风的苍色」")</f>
         <v>「归风的苍色」</v>
@@ -10341,8 +10223,8 @@
       <c r="B209" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C209" s="50"/>
-      <c r="D209" s="50"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="42"/>
       <c r="E209" s="15" t="str">
         <f>HYPERLINK("#摆设!茁壮的萃华树","茁壮的萃华树")</f>
         <v>茁壮的萃华树</v>
@@ -10378,8 +10260,8 @@
       <c r="B210" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C210" s="50"/>
-      <c r="D210" s="50"/>
+      <c r="C210" s="42"/>
+      <c r="D210" s="42"/>
       <c r="E210" s="15" t="str">
         <f>HYPERLINK("#摆设!青衫景铄","青衫景铄")</f>
         <v>青衫景铄</v>
@@ -10415,8 +10297,8 @@
       <c r="B211" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C211" s="50"/>
-      <c r="D211" s="50"/>
+      <c r="C211" s="42"/>
+      <c r="D211" s="42"/>
       <c r="E211" s="15" t="str">
         <f>HYPERLINK("#摆设!青衫问寒","青衫问寒")</f>
         <v>青衫问寒</v>
@@ -10452,8 +10334,8 @@
       <c r="B212" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C212" s="50"/>
-      <c r="D212" s="50"/>
+      <c r="C212" s="42"/>
+      <c r="D212" s="42"/>
       <c r="E212" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘弓箭标靶","丘丘弓箭标靶")</f>
         <v>丘丘弓箭标靶</v>
@@ -10489,8 +10371,8 @@
       <c r="B213" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C213" s="50"/>
-      <c r="D213" s="50"/>
+      <c r="C213" s="42"/>
+      <c r="D213" s="42"/>
       <c r="E213" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘带角陶锅","丘丘带角陶锅")</f>
         <v>丘丘带角陶锅</v>
@@ -10526,8 +10408,8 @@
       <c r="B214" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C214" s="50"/>
-      <c r="D214" s="50"/>
+      <c r="C214" s="42"/>
+      <c r="D214" s="42"/>
       <c r="E214" s="15" t="str">
         <f>HYPERLINK("#摆设!杉木置物架","杉木置物架")</f>
         <v>杉木置物架</v>
@@ -10563,8 +10445,8 @@
       <c r="B215" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C215" s="50"/>
-      <c r="D215" s="50"/>
+      <c r="C215" s="42"/>
+      <c r="D215" s="42"/>
       <c r="E215" s="15" t="str">
         <f>HYPERLINK("#摆设!杉木武器架","杉木武器架")</f>
         <v>杉木武器架</v>
@@ -10600,8 +10482,8 @@
       <c r="B216" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C216" s="50"/>
-      <c r="D216" s="50"/>
+      <c r="C216" s="42"/>
+      <c r="D216" s="42"/>
       <c r="E216" s="15" t="str">
         <f>HYPERLINK("#摆设!硬木兵戈架","硬木兵戈架")</f>
         <v>硬木兵戈架</v>
@@ -10637,8 +10519,8 @@
       <c r="B217" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C217" s="50"/>
-      <c r="D217" s="50"/>
+      <c r="C217" s="42"/>
+      <c r="D217" s="42"/>
       <c r="E217" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘木制围栏","丘丘木制围栏")</f>
         <v>丘丘木制围栏</v>
@@ -10674,8 +10556,8 @@
       <c r="B218" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C218" s="50"/>
-      <c r="D218" s="50"/>
+      <c r="C218" s="42"/>
+      <c r="D218" s="42"/>
       <c r="E218" s="15" t="str">
         <f>HYPERLINK("#摆设!丘丘图腾围栏","丘丘图腾围栏")</f>
         <v>丘丘图腾围栏</v>
@@ -10725,10 +10607,10 @@
       <c r="B220" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C220" s="51">
+      <c r="C220" s="41">
         <v>18</v>
       </c>
-      <c r="D220" s="47" t="s">
+      <c r="D220" s="44" t="s">
         <v>159</v>
       </c>
       <c r="E220" s="15" t="str">
@@ -10766,8 +10648,8 @@
       <c r="B221" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C221" s="50"/>
-      <c r="D221" s="50"/>
+      <c r="C221" s="42"/>
+      <c r="D221" s="42"/>
       <c r="E221" s="15" t="str">
         <f>HYPERLINK("#摆设!硬顶避雷帐篷","硬顶避雷帐篷")</f>
         <v>硬顶避雷帐篷</v>
@@ -10803,8 +10685,8 @@
       <c r="B222" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C222" s="50"/>
-      <c r="D222" s="50"/>
+      <c r="C222" s="42"/>
+      <c r="D222" s="42"/>
       <c r="E222" s="15" t="str">
         <f>HYPERLINK("#摆设!简易单人帐篷","简易单人帐篷")</f>
         <v>简易单人帐篷</v>
@@ -10840,8 +10722,8 @@
       <c r="B223" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C223" s="50"/>
-      <c r="D223" s="50"/>
+      <c r="C223" s="42"/>
+      <c r="D223" s="42"/>
       <c r="E223" s="15" t="str">
         <f>HYPERLINK("#摆设!纤拳石","纤拳石")</f>
         <v>纤拳石</v>
@@ -10877,8 +10759,8 @@
       <c r="B224" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C224" s="50"/>
-      <c r="D224" s="50"/>
+      <c r="C224" s="42"/>
+      <c r="D224" s="42"/>
       <c r="E224" s="15" t="str">
         <f>HYPERLINK("#摆设!天衡赤枫—「红叶如灼」","天衡赤枫—「红叶如灼」")</f>
         <v>天衡赤枫—「红叶如灼」</v>
@@ -10914,8 +10796,8 @@
       <c r="B225" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C225" s="50"/>
-      <c r="D225" s="50"/>
+      <c r="C225" s="42"/>
+      <c r="D225" s="42"/>
       <c r="E225" s="15" t="str">
         <f>HYPERLINK("#摆设!「明冠羽叶」","「明冠羽叶」")</f>
         <v>「明冠羽叶」</v>
@@ -10951,8 +10833,8 @@
       <c r="B226" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C226" s="50"/>
-      <c r="D226" s="50"/>
+      <c r="C226" s="42"/>
+      <c r="D226" s="42"/>
       <c r="E226" s="15" t="str">
         <f>HYPERLINK("#摆设!青衫问寒","青衫问寒")</f>
         <v>青衫问寒</v>
@@ -10988,8 +10870,8 @@
       <c r="B227" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C227" s="50"/>
-      <c r="D227" s="50"/>
+      <c r="C227" s="42"/>
+      <c r="D227" s="42"/>
       <c r="E227" s="15" t="str">
         <f>HYPERLINK("#摆设!枯木方向标","枯木方向标")</f>
         <v>枯木方向标</v>
@@ -11025,8 +10907,8 @@
       <c r="B228" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C228" s="50"/>
-      <c r="D228" s="50"/>
+      <c r="C228" s="42"/>
+      <c r="D228" s="42"/>
       <c r="E228" s="15" t="str">
         <f>HYPERLINK("#摆设!「冒险家难逃之重」","「冒险家难逃之重」")</f>
         <v>「冒险家难逃之重」</v>
@@ -11062,8 +10944,8 @@
       <c r="B229" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C229" s="50"/>
-      <c r="D229" s="50"/>
+      <c r="C229" s="42"/>
+      <c r="D229" s="42"/>
       <c r="E229" s="15" t="str">
         <f>HYPERLINK("#摆设!「冒险家的随身秘宝」","「冒险家的随身秘宝」")</f>
         <v>「冒险家的随身秘宝」</v>
@@ -11113,10 +10995,10 @@
       <c r="B231" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C231" s="51">
+      <c r="C231" s="41">
         <v>19</v>
       </c>
-      <c r="D231" s="47" t="s">
+      <c r="D231" s="44" t="s">
         <v>162</v>
       </c>
       <c r="E231" s="15" t="str">
@@ -11154,8 +11036,8 @@
       <c r="B232" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C232" s="50"/>
-      <c r="D232" s="50"/>
+      <c r="C232" s="42"/>
+      <c r="D232" s="42"/>
       <c r="E232" s="15" t="str">
         <f>HYPERLINK("#摆设!有序叠放的杉木酒桶","有序叠放的杉木酒桶")</f>
         <v>有序叠放的杉木酒桶</v>
@@ -11191,8 +11073,8 @@
       <c r="B233" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C233" s="50"/>
-      <c r="D233" s="50"/>
+      <c r="C233" s="42"/>
+      <c r="D233" s="42"/>
       <c r="E233" s="15" t="str">
         <f>HYPERLINK("#摆设!结实的木桶","结实的木桶")</f>
         <v>结实的木桶</v>
@@ -11228,8 +11110,8 @@
       <c r="B234" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C234" s="50"/>
-      <c r="D234" s="50"/>
+      <c r="C234" s="42"/>
+      <c r="D234" s="42"/>
       <c r="E234" s="15" t="str">
         <f>HYPERLINK("#摆设!高耸的木杆","高耸的木杆")</f>
         <v>高耸的木杆</v>
@@ -11265,8 +11147,8 @@
       <c r="B235" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C235" s="50"/>
-      <c r="D235" s="50"/>
+      <c r="C235" s="42"/>
+      <c r="D235" s="42"/>
       <c r="E235" s="15" t="str">
         <f>HYPERLINK("#摆设!转移壅土的木桶","转移壅土的木桶")</f>
         <v>转移壅土的木桶</v>
@@ -11302,8 +11184,8 @@
       <c r="B236" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C236" s="50"/>
-      <c r="D236" s="50"/>
+      <c r="C236" s="42"/>
+      <c r="D236" s="42"/>
       <c r="E236" s="15" t="str">
         <f>HYPERLINK("#摆设!简易货运拖车","简易货运拖车")</f>
         <v>简易货运拖车</v>
@@ -11339,8 +11221,8 @@
       <c r="B237" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C237" s="50"/>
-      <c r="D237" s="50"/>
+      <c r="C237" s="42"/>
+      <c r="D237" s="42"/>
       <c r="E237" s="15" t="str">
         <f>HYPERLINK("#摆设!野外松木路灯","野外松木路灯")</f>
         <v>野外松木路灯</v>
@@ -11376,8 +11258,8 @@
       <c r="B238" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C238" s="50"/>
-      <c r="D238" s="50"/>
+      <c r="C238" s="42"/>
+      <c r="D238" s="42"/>
       <c r="E238" s="15" t="str">
         <f>HYPERLINK("#摆设!葱郁的葡萄藤","葱郁的葡萄藤")</f>
         <v>葱郁的葡萄藤</v>
@@ -11413,8 +11295,8 @@
       <c r="B239" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C239" s="50"/>
-      <c r="D239" s="50"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="42"/>
       <c r="E239" s="15" t="str">
         <f>HYPERLINK("#摆设!简易木制围栏","简易木制围栏")</f>
         <v>简易木制围栏</v>
@@ -11450,8 +11332,8 @@
       <c r="B240" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C240" s="50"/>
-      <c r="D240" s="50"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="42"/>
       <c r="E240" s="15" t="str">
         <f>HYPERLINK("#摆设!施工过半的围栏","施工过半的围栏")</f>
         <v>施工过半的围栏</v>
@@ -11497,10 +11379,10 @@
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="13"/>
       <c r="B242" s="13"/>
-      <c r="C242" s="51">
+      <c r="C242" s="41">
         <v>20</v>
       </c>
-      <c r="D242" s="47" t="s">
+      <c r="D242" s="44" t="s">
         <v>164</v>
       </c>
       <c r="E242" s="15" t="str">
@@ -11530,15 +11412,15 @@
         <v>120</v>
       </c>
       <c r="M242" s="20"/>
-      <c r="N242" s="49" t="s">
+      <c r="N242" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="13"/>
       <c r="B243" s="13"/>
-      <c r="C243" s="48"/>
-      <c r="D243" s="48"/>
+      <c r="C243" s="43"/>
+      <c r="D243" s="43"/>
       <c r="E243" s="15" t="str">
         <f>HYPERLINK("#摆设!要地栏楯—「约己之壁」","要地栏楯—「约己之壁」")</f>
         <v>要地栏楯—「约己之壁」</v>
@@ -11566,13 +11448,13 @@
         <v>120</v>
       </c>
       <c r="M243" s="20"/>
-      <c r="N243" s="49"/>
+      <c r="N243" s="46"/>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" s="13"/>
       <c r="B244" s="13"/>
-      <c r="C244" s="48"/>
-      <c r="D244" s="48"/>
+      <c r="C244" s="43"/>
+      <c r="D244" s="43"/>
       <c r="E244" s="15" t="str">
         <f>HYPERLINK("#摆设!栏楯转角—「瞩视无遗」","栏楯转角—「瞩视无遗」")</f>
         <v>栏楯转角—「瞩视无遗」</v>
@@ -11600,13 +11482,13 @@
         <v>120</v>
       </c>
       <c r="M244" s="20"/>
-      <c r="N244" s="49"/>
+      <c r="N244" s="46"/>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="13"/>
       <c r="B245" s="13"/>
-      <c r="C245" s="48"/>
-      <c r="D245" s="48"/>
+      <c r="C245" s="43"/>
+      <c r="D245" s="43"/>
       <c r="E245" s="15" t="str">
         <f>HYPERLINK("#摆设!稻妻官邸—「严谕正办」","稻妻官邸—「严谕正办」")</f>
         <v>稻妻官邸—「严谕正办」</v>
@@ -11634,13 +11516,13 @@
         <v>120</v>
       </c>
       <c r="M245" s="20"/>
-      <c r="N245" s="49"/>
+      <c r="N245" s="46"/>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="13"/>
       <c r="B246" s="13"/>
-      <c r="C246" s="48"/>
-      <c r="D246" s="48"/>
+      <c r="C246" s="43"/>
+      <c r="D246" s="43"/>
       <c r="E246" s="15" t="str">
         <f>HYPERLINK("#摆设!官邸回廊—「势至权达」","官邸回廊—「势至权达」")</f>
         <v>官邸回廊—「势至权达」</v>
@@ -11668,13 +11550,13 @@
         <v>120</v>
       </c>
       <c r="M246" s="20"/>
-      <c r="N246" s="49"/>
+      <c r="N246" s="46"/>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="13"/>
       <c r="B247" s="13"/>
-      <c r="C247" s="48"/>
-      <c r="D247" s="48"/>
+      <c r="C247" s="43"/>
+      <c r="D247" s="43"/>
       <c r="E247" s="15" t="str">
         <f>HYPERLINK("#摆设!「红鸢问寝觉」","「红鸢问寝觉」")</f>
         <v>「红鸢问寝觉」</v>
@@ -11702,13 +11584,13 @@
         <v>166</v>
       </c>
       <c r="M247" s="20"/>
-      <c r="N247" s="49"/>
+      <c r="N247" s="46"/>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="13"/>
       <c r="B248" s="13"/>
-      <c r="C248" s="48"/>
-      <c r="D248" s="48"/>
+      <c r="C248" s="43"/>
+      <c r="D248" s="43"/>
       <c r="E248" s="15" t="str">
         <f>HYPERLINK("#摆设!「片叶苏芳缀银朱」","「片叶苏芳缀银朱」")</f>
         <v>「片叶苏芳缀银朱」</v>
@@ -11736,13 +11618,13 @@
         <v>166</v>
       </c>
       <c r="M248" s="20"/>
-      <c r="N248" s="49"/>
+      <c r="N248" s="46"/>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="13"/>
       <c r="B249" s="13"/>
-      <c r="C249" s="48"/>
-      <c r="D249" s="48"/>
+      <c r="C249" s="43"/>
+      <c r="D249" s="43"/>
       <c r="E249" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋半钟—「轰雷之音」","阵屋半钟—「轰雷之音」")</f>
         <v>阵屋半钟—「轰雷之音」</v>
@@ -11770,13 +11652,13 @@
         <v>167</v>
       </c>
       <c r="M249" s="20"/>
-      <c r="N249" s="49"/>
+      <c r="N249" s="46"/>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" s="13"/>
       <c r="B250" s="13"/>
-      <c r="C250" s="48"/>
-      <c r="D250" s="48"/>
+      <c r="C250" s="43"/>
+      <c r="D250" s="43"/>
       <c r="E250" s="15" t="str">
         <f>HYPERLINK("#摆设!军势钲鼓—「破阵余响」","军势钲鼓—「破阵余响」")</f>
         <v>军势钲鼓—「破阵余响」</v>
@@ -11804,7 +11686,7 @@
         <v>168</v>
       </c>
       <c r="M250" s="20"/>
-      <c r="N250" s="49"/>
+      <c r="N250" s="46"/>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" s="13"/>
@@ -11824,10 +11706,10 @@
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" s="13"/>
       <c r="B252" s="13"/>
-      <c r="C252" s="51">
+      <c r="C252" s="41">
         <v>21</v>
       </c>
-      <c r="D252" s="47" t="s">
+      <c r="D252" s="44" t="s">
         <v>169</v>
       </c>
       <c r="E252" s="15" t="str">
@@ -11862,8 +11744,8 @@
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" s="13"/>
       <c r="B253" s="13"/>
-      <c r="C253" s="48"/>
-      <c r="D253" s="48"/>
+      <c r="C253" s="43"/>
+      <c r="D253" s="43"/>
       <c r="E253" s="15" t="str">
         <f>HYPERLINK("#摆设!温泉外墙—「无越」","温泉外墙—「无越」")</f>
         <v>温泉外墙—「无越」</v>
@@ -11896,8 +11778,8 @@
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" s="13"/>
       <c r="B254" s="13"/>
-      <c r="C254" s="48"/>
-      <c r="D254" s="48"/>
+      <c r="C254" s="43"/>
+      <c r="D254" s="43"/>
       <c r="E254" s="15" t="str">
         <f>HYPERLINK("#摆设!温泉墙板—「稳足」","温泉墙板—「稳足」")</f>
         <v>温泉墙板—「稳足」</v>
@@ -11930,8 +11812,8 @@
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" s="13"/>
       <c r="B255" s="13"/>
-      <c r="C255" s="48"/>
-      <c r="D255" s="48"/>
+      <c r="C255" s="43"/>
+      <c r="D255" s="43"/>
       <c r="E255" s="15" t="str">
         <f>HYPERLINK("#摆设!温泉门厅—「避凉」","温泉门厅—「避凉」")</f>
         <v>温泉门厅—「避凉」</v>
@@ -11964,8 +11846,8 @@
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" s="13"/>
       <c r="B256" s="13"/>
-      <c r="C256" s="48"/>
-      <c r="D256" s="48"/>
+      <c r="C256" s="43"/>
+      <c r="D256" s="43"/>
       <c r="E256" s="15" t="str">
         <f>HYPERLINK("#摆设!白石温泉—「暖漫」","白石温泉—「暖漫」")</f>
         <v>白石温泉—「暖漫」</v>
@@ -11998,8 +11880,8 @@
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" s="13"/>
       <c r="B257" s="13"/>
-      <c r="C257" s="48"/>
-      <c r="D257" s="48"/>
+      <c r="C257" s="43"/>
+      <c r="D257" s="43"/>
       <c r="E257" s="15" t="str">
         <f>HYPERLINK("#摆设!寂修石","寂修石")</f>
         <v>寂修石</v>
@@ -12032,8 +11914,8 @@
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" s="13"/>
       <c r="B258" s="13"/>
-      <c r="C258" s="48"/>
-      <c r="D258" s="48"/>
+      <c r="C258" s="43"/>
+      <c r="D258" s="43"/>
       <c r="E258" s="15" t="str">
         <f>HYPERLINK("#摆设!涉浪石","涉浪石")</f>
         <v>涉浪石</v>
@@ -12066,8 +11948,8 @@
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" s="13"/>
       <c r="B259" s="13"/>
-      <c r="C259" s="48"/>
-      <c r="D259" s="48"/>
+      <c r="C259" s="43"/>
+      <c r="D259" s="43"/>
       <c r="E259" s="15" t="str">
         <f>HYPERLINK("#摆设!温泉白石—「秘火」","温泉白石—「秘火」")</f>
         <v>温泉白石—「秘火」</v>
@@ -12100,8 +11982,8 @@
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" s="13"/>
       <c r="B260" s="13"/>
-      <c r="C260" s="48"/>
-      <c r="D260" s="48"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="43"/>
       <c r="E260" s="15" t="str">
         <f>HYPERLINK("#摆设!「花咲初退红」","「花咲初退红」")</f>
         <v>「花咲初退红」</v>
@@ -12134,8 +12016,8 @@
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" s="13"/>
       <c r="B261" s="13"/>
-      <c r="C261" s="48"/>
-      <c r="D261" s="48"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="43"/>
       <c r="E261" s="15" t="str">
         <f>HYPERLINK("#摆设!「春惜一斤染」","「春惜一斤染」")</f>
         <v>「春惜一斤染」</v>
@@ -12168,8 +12050,8 @@
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" s="13"/>
       <c r="B262" s="13"/>
-      <c r="C262" s="48"/>
-      <c r="D262" s="48"/>
+      <c r="C262" s="43"/>
+      <c r="D262" s="43"/>
       <c r="E262" s="15" t="str">
         <f>HYPERLINK("#摆设!「薄红榴璃散千瓣」","「薄红榴璃散千瓣」")</f>
         <v>「薄红榴璃散千瓣」</v>
@@ -12197,7 +12079,7 @@
         <v>166</v>
       </c>
       <c r="M262" s="20"/>
-      <c r="N262" s="49" t="s">
+      <c r="N262" s="46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12214,15 +12096,15 @@
       <c r="K263" s="16"/>
       <c r="L263" s="16"/>
       <c r="M263" s="20"/>
-      <c r="N263" s="49"/>
+      <c r="N263" s="46"/>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" s="13"/>
       <c r="B264" s="13"/>
-      <c r="C264" s="51">
+      <c r="C264" s="41">
         <v>22</v>
       </c>
-      <c r="D264" s="47" t="s">
+      <c r="D264" s="44" t="s">
         <v>170</v>
       </c>
       <c r="E264" s="15" t="str">
@@ -12252,13 +12134,13 @@
         <v>120</v>
       </c>
       <c r="M264" s="20"/>
-      <c r="N264" s="49"/>
+      <c r="N264" s="46"/>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" s="13"/>
       <c r="B265" s="13"/>
-      <c r="C265" s="48"/>
-      <c r="D265" s="48"/>
+      <c r="C265" s="43"/>
+      <c r="D265" s="43"/>
       <c r="E265" s="15" t="str">
         <f>HYPERLINK("#摆设!御伽木「近竹」围栏","御伽木「近竹」围栏")</f>
         <v>御伽木「近竹」围栏</v>
@@ -12286,13 +12168,13 @@
         <v>120</v>
       </c>
       <c r="M265" s="20"/>
-      <c r="N265" s="49"/>
+      <c r="N265" s="46"/>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" s="13"/>
       <c r="B266" s="13"/>
-      <c r="C266" s="48"/>
-      <c r="D266" s="48"/>
+      <c r="C266" s="43"/>
+      <c r="D266" s="43"/>
       <c r="E266" s="15" t="str">
         <f>HYPERLINK("#摆设!稻妻筱屋—「静度岁晏」","稻妻筱屋—「静度岁晏」")</f>
         <v>稻妻筱屋—「静度岁晏」</v>
@@ -12320,13 +12202,13 @@
         <v>120</v>
       </c>
       <c r="M266" s="20"/>
-      <c r="N266" s="49"/>
+      <c r="N266" s="46"/>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" s="13"/>
       <c r="B267" s="13"/>
-      <c r="C267" s="48"/>
-      <c r="D267" s="48"/>
+      <c r="C267" s="43"/>
+      <c r="D267" s="43"/>
       <c r="E267" s="15" t="str">
         <f>HYPERLINK("#摆设!稻妻筱屋—「野逸入心」","稻妻筱屋—「野逸入心」")</f>
         <v>稻妻筱屋—「野逸入心」</v>
@@ -12354,13 +12236,13 @@
         <v>120</v>
       </c>
       <c r="M267" s="20"/>
-      <c r="N267" s="49"/>
+      <c r="N267" s="46"/>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" s="13"/>
       <c r="B268" s="13"/>
-      <c r="C268" s="48"/>
-      <c r="D268" s="48"/>
+      <c r="C268" s="43"/>
+      <c r="D268" s="43"/>
       <c r="E268" s="15" t="str">
         <f>HYPERLINK("#摆设!「纁漫雁来中」","「纁漫雁来中」")</f>
         <v>「纁漫雁来中」</v>
@@ -12388,13 +12270,13 @@
         <v>166</v>
       </c>
       <c r="M268" s="20"/>
-      <c r="N268" s="49"/>
+      <c r="N268" s="46"/>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
-      <c r="C269" s="48"/>
-      <c r="D269" s="48"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="43"/>
       <c r="E269" s="15" t="str">
         <f>HYPERLINK("#摆设!御伽木「但饮」木桶","御伽木「但饮」木桶")</f>
         <v>御伽木「但饮」木桶</v>
@@ -12422,13 +12304,13 @@
         <v>120</v>
       </c>
       <c r="M269" s="20"/>
-      <c r="N269" s="49"/>
+      <c r="N269" s="46"/>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" s="13"/>
       <c r="B270" s="13"/>
-      <c r="C270" s="48"/>
-      <c r="D270" s="48"/>
+      <c r="C270" s="43"/>
+      <c r="D270" s="43"/>
       <c r="E270" s="15" t="str">
         <f>HYPERLINK("#摆设!厚壁「石胆」陶制水缸","厚壁「石胆」陶制水缸")</f>
         <v>厚壁「石胆」陶制水缸</v>
@@ -12456,13 +12338,13 @@
         <v>120</v>
       </c>
       <c r="M270" s="20"/>
-      <c r="N270" s="49"/>
+      <c r="N270" s="46"/>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" s="13"/>
       <c r="B271" s="13"/>
-      <c r="C271" s="48"/>
-      <c r="D271" s="48"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="43"/>
       <c r="E271" s="15" t="str">
         <f>HYPERLINK("#摆设!晴空缯彩游鱼旗","晴空缯彩游鱼旗")</f>
         <v>晴空缯彩游鱼旗</v>
@@ -12490,13 +12372,13 @@
         <v>120</v>
       </c>
       <c r="M271" s="20"/>
-      <c r="N271" s="49"/>
+      <c r="N271" s="46"/>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" s="13"/>
       <c r="B272" s="13"/>
-      <c r="C272" s="48"/>
-      <c r="D272" s="48"/>
+      <c r="C272" s="43"/>
+      <c r="D272" s="43"/>
       <c r="E272" s="15" t="str">
         <f>HYPERLINK("#摆设!「果农的勤俭」","「果农的勤俭」")</f>
         <v>「果农的勤俭」</v>
@@ -12524,7 +12406,7 @@
         <v>120</v>
       </c>
       <c r="M272" s="20"/>
-      <c r="N272" s="49"/>
+      <c r="N272" s="46"/>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" s="13"/>
@@ -12544,10 +12426,10 @@
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" s="13"/>
       <c r="B274" s="13"/>
-      <c r="C274" s="51">
+      <c r="C274" s="41">
         <v>23</v>
       </c>
-      <c r="D274" s="47" t="s">
+      <c r="D274" s="44" t="s">
         <v>171</v>
       </c>
       <c r="E274" s="15" t="str">
@@ -12577,15 +12459,15 @@
         <v>167</v>
       </c>
       <c r="M274" s="20"/>
-      <c r="N274" s="49" t="s">
+      <c r="N274" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" s="13"/>
       <c r="B275" s="13"/>
-      <c r="C275" s="48"/>
-      <c r="D275" s="48"/>
+      <c r="C275" s="43"/>
+      <c r="D275" s="43"/>
       <c r="E275" s="15" t="str">
         <f>HYPERLINK("#摆设!御神签务所—「兆解」","御神签务所—「兆解」")</f>
         <v>御神签务所—「兆解」</v>
@@ -12613,13 +12495,13 @@
         <v>120</v>
       </c>
       <c r="M275" s="20"/>
-      <c r="N275" s="49"/>
+      <c r="N275" s="46"/>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" s="13"/>
       <c r="B276" s="13"/>
-      <c r="C276" s="48"/>
-      <c r="D276" s="48"/>
+      <c r="C276" s="43"/>
+      <c r="D276" s="43"/>
       <c r="E276" s="15" t="str">
         <f>HYPERLINK("#摆设!「代宫司之印」","「代宫司之印」")</f>
         <v>「代宫司之印」</v>
@@ -12647,13 +12529,13 @@
         <v>166</v>
       </c>
       <c r="M276" s="20"/>
-      <c r="N276" s="49"/>
+      <c r="N276" s="46"/>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" s="13"/>
       <c r="B277" s="13"/>
-      <c r="C277" s="48"/>
-      <c r="D277" s="48"/>
+      <c r="C277" s="43"/>
+      <c r="D277" s="43"/>
       <c r="E277" s="15" t="str">
         <f>HYPERLINK("#摆设!「红鸢问寝觉」","「红鸢问寝觉」")</f>
         <v>「红鸢问寝觉」</v>
@@ -12681,13 +12563,13 @@
         <v>166</v>
       </c>
       <c r="M277" s="20"/>
-      <c r="N277" s="49"/>
+      <c r="N277" s="46"/>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" s="13"/>
       <c r="B278" s="13"/>
-      <c r="C278" s="48"/>
-      <c r="D278" s="48"/>
+      <c r="C278" s="43"/>
+      <c r="D278" s="43"/>
       <c r="E278" s="15" t="str">
         <f>HYPERLINK("#摆设!「片叶苏芳缀银朱」","「片叶苏芳缀银朱」")</f>
         <v>「片叶苏芳缀银朱」</v>
@@ -12715,13 +12597,13 @@
         <v>166</v>
       </c>
       <c r="M278" s="20"/>
-      <c r="N278" s="49"/>
+      <c r="N278" s="46"/>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" s="13"/>
       <c r="B279" s="13"/>
-      <c r="C279" s="48"/>
-      <c r="D279" s="48"/>
+      <c r="C279" s="43"/>
+      <c r="D279" s="43"/>
       <c r="E279" s="15" t="str">
         <f>HYPERLINK("#摆设!「紫苑叹幽弘」","「紫苑叹幽弘」")</f>
         <v>「紫苑叹幽弘」</v>
@@ -12749,13 +12631,13 @@
         <v>166</v>
       </c>
       <c r="M279" s="20"/>
-      <c r="N279" s="49"/>
+      <c r="N279" s="46"/>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" s="13"/>
       <c r="B280" s="13"/>
-      <c r="C280" s="48"/>
-      <c r="D280" s="48"/>
+      <c r="C280" s="43"/>
+      <c r="D280" s="43"/>
       <c r="E280" s="15" t="str">
         <f>HYPERLINK("#摆设!梦见木「灾祛」御签挂","梦见木「灾祛」御签挂")</f>
         <v>梦见木「灾祛」御签挂</v>
@@ -12783,13 +12665,13 @@
         <v>120</v>
       </c>
       <c r="M280" s="20"/>
-      <c r="N280" s="49"/>
+      <c r="N280" s="46"/>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" s="13"/>
       <c r="B281" s="13"/>
-      <c r="C281" s="48"/>
-      <c r="D281" s="48"/>
+      <c r="C281" s="43"/>
+      <c r="D281" s="43"/>
       <c r="E281" s="15" t="str">
         <f>HYPERLINK("#摆设!天狐雕像—「白辰嗣响」","天狐雕像—「白辰嗣响」")</f>
         <v>天狐雕像—「白辰嗣响」</v>
@@ -12817,13 +12699,13 @@
         <v>120</v>
       </c>
       <c r="M281" s="20"/>
-      <c r="N281" s="49"/>
+      <c r="N281" s="46"/>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" s="13"/>
       <c r="B282" s="13"/>
-      <c r="C282" s="48"/>
-      <c r="D282" s="48"/>
+      <c r="C282" s="43"/>
+      <c r="D282" s="43"/>
       <c r="E282" s="15" t="str">
         <f>HYPERLINK("#摆设!梦见木「诚见」赛钱箱","梦见木「诚见」赛钱箱")</f>
         <v>梦见木「诚见」赛钱箱</v>
@@ -12851,13 +12733,13 @@
         <v>120</v>
       </c>
       <c r="M282" s="20"/>
-      <c r="N282" s="49"/>
+      <c r="N282" s="46"/>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" s="13"/>
       <c r="B283" s="13"/>
-      <c r="C283" s="48"/>
-      <c r="D283" s="48"/>
+      <c r="C283" s="43"/>
+      <c r="D283" s="43"/>
       <c r="E283" s="15" t="str">
         <f>HYPERLINK("#摆设!梦见木「空怀」路灯","梦见木「空怀」路灯")</f>
         <v>梦见木「空怀」路灯</v>
@@ -12885,13 +12767,13 @@
         <v>120</v>
       </c>
       <c r="M283" s="20"/>
-      <c r="N283" s="49"/>
+      <c r="N283" s="46"/>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" s="13"/>
       <c r="B284" s="13"/>
-      <c r="C284" s="48"/>
-      <c r="D284" s="48"/>
+      <c r="C284" s="43"/>
+      <c r="D284" s="43"/>
       <c r="E284" s="15" t="str">
         <f>HYPERLINK("#摆设!鱼脂白烛—「傍明」","鱼脂白烛—「傍明」")</f>
         <v>鱼脂白烛—「傍明」</v>
@@ -12919,13 +12801,13 @@
         <v>120</v>
       </c>
       <c r="M284" s="20"/>
-      <c r="N284" s="49"/>
+      <c r="N284" s="46"/>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" s="13"/>
       <c r="B285" s="13"/>
-      <c r="C285" s="48"/>
-      <c r="D285" s="48"/>
+      <c r="C285" s="43"/>
+      <c r="D285" s="43"/>
       <c r="E285" s="15" t="str">
         <f>HYPERLINK("#摆设!铸石地基—「修身砥行」","铸石地基—「修身砥行」")</f>
         <v>铸石地基—「修身砥行」</v>
@@ -12953,13 +12835,13 @@
         <v>117</v>
       </c>
       <c r="M285" s="20"/>
-      <c r="N285" s="49"/>
+      <c r="N285" s="46"/>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" s="13"/>
       <c r="B286" s="13"/>
-      <c r="C286" s="48"/>
-      <c r="D286" s="48"/>
+      <c r="C286" s="43"/>
+      <c r="D286" s="43"/>
       <c r="E286" s="15" t="str">
         <f>HYPERLINK("#摆设!铸石地基—「随车致雨」","铸石地基—「随车致雨」")</f>
         <v>铸石地基—「随车致雨」</v>
@@ -12987,13 +12869,13 @@
         <v>117</v>
       </c>
       <c r="M286" s="20"/>
-      <c r="N286" s="49"/>
+      <c r="N286" s="46"/>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" s="13"/>
       <c r="B287" s="13"/>
-      <c r="C287" s="48"/>
-      <c r="D287" s="48"/>
+      <c r="C287" s="43"/>
+      <c r="D287" s="43"/>
       <c r="E287" s="15" t="str">
         <f>HYPERLINK("#摆设!铸石地基—「倍道兼行」","铸石地基—「倍道兼行」")</f>
         <v>铸石地基—「倍道兼行」</v>
@@ -13021,7 +12903,7 @@
         <v>117</v>
       </c>
       <c r="M287" s="20"/>
-      <c r="N287" s="49"/>
+      <c r="N287" s="46"/>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" s="13"/>
@@ -13041,10 +12923,10 @@
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" s="13"/>
       <c r="B289" s="13"/>
-      <c r="C289" s="51">
+      <c r="C289" s="41">
         <v>24</v>
       </c>
-      <c r="D289" s="47" t="s">
+      <c r="D289" s="44" t="s">
         <v>173</v>
       </c>
       <c r="E289" s="15" t="str">
@@ -13079,8 +12961,8 @@
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" s="13"/>
       <c r="B290" s="13"/>
-      <c r="C290" s="48"/>
-      <c r="D290" s="48"/>
+      <c r="C290" s="43"/>
+      <c r="D290" s="43"/>
       <c r="E290" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋围栏—「错牙」","阵屋围栏—「错牙」")</f>
         <v>阵屋围栏—「错牙」</v>
@@ -13113,8 +12995,8 @@
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" s="13"/>
       <c r="B291" s="13"/>
-      <c r="C291" s="48"/>
-      <c r="D291" s="48"/>
+      <c r="C291" s="43"/>
+      <c r="D291" s="43"/>
       <c r="E291" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋围栏—「截断」","阵屋围栏—「截断」")</f>
         <v>阵屋围栏—「截断」</v>
@@ -13147,8 +13029,8 @@
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="13"/>
       <c r="B292" s="13"/>
-      <c r="C292" s="48"/>
-      <c r="D292" s="48"/>
+      <c r="C292" s="43"/>
+      <c r="D292" s="43"/>
       <c r="E292" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋桩木—「苦刺」","阵屋桩木—「苦刺」")</f>
         <v>阵屋桩木—「苦刺」</v>
@@ -13181,8 +13063,8 @@
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="13"/>
       <c r="B293" s="13"/>
-      <c r="C293" s="48"/>
-      <c r="D293" s="48"/>
+      <c r="C293" s="43"/>
+      <c r="D293" s="43"/>
       <c r="E293" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋哨塔—「洞鉴」","阵屋哨塔—「洞鉴」")</f>
         <v>阵屋哨塔—「洞鉴」</v>
@@ -13215,8 +13097,8 @@
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="13"/>
       <c r="B294" s="13"/>
-      <c r="C294" s="48"/>
-      <c r="D294" s="48"/>
+      <c r="C294" s="43"/>
+      <c r="D294" s="43"/>
       <c r="E294" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋行帐—「时策」","阵屋行帐—「时策」")</f>
         <v>阵屋行帐—「时策」</v>
@@ -13249,8 +13131,8 @@
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="13"/>
       <c r="B295" s="13"/>
-      <c r="C295" s="48"/>
-      <c r="D295" s="48"/>
+      <c r="C295" s="43"/>
+      <c r="D295" s="43"/>
       <c r="E295" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋营房—「周固」","阵屋营房—「周固」")</f>
         <v>阵屋营房—「周固」</v>
@@ -13283,8 +13165,8 @@
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="13"/>
       <c r="B296" s="13"/>
-      <c r="C296" s="48"/>
-      <c r="D296" s="48"/>
+      <c r="C296" s="43"/>
+      <c r="D296" s="43"/>
       <c r="E296" s="15" t="str">
         <f>HYPERLINK("#摆设!「纁漫雁来中」","「纁漫雁来中」")</f>
         <v>「纁漫雁来中」</v>
@@ -13317,8 +13199,8 @@
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="13"/>
       <c r="B297" s="13"/>
-      <c r="C297" s="48"/>
-      <c r="D297" s="48"/>
+      <c r="C297" s="43"/>
+      <c r="D297" s="43"/>
       <c r="E297" s="15" t="str">
         <f>HYPERLINK("#摆设!「片叶苏芳缀银朱」","「片叶苏芳缀银朱」")</f>
         <v>「片叶苏芳缀银朱」</v>
@@ -13351,8 +13233,8 @@
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="13"/>
       <c r="B298" s="13"/>
-      <c r="C298" s="48"/>
-      <c r="D298" s="48"/>
+      <c r="C298" s="43"/>
+      <c r="D298" s="43"/>
       <c r="E298" s="15" t="str">
         <f>HYPERLINK("#摆设!古法新造御伽木酒桶","古法新造御伽木酒桶")</f>
         <v>古法新造御伽木酒桶</v>
@@ -13385,8 +13267,8 @@
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="13"/>
       <c r="B299" s="13"/>
-      <c r="C299" s="48"/>
-      <c r="D299" s="48"/>
+      <c r="C299" s="43"/>
+      <c r="D299" s="43"/>
       <c r="E299" s="15" t="str">
         <f>HYPERLINK("#摆设!御建鸣神主尊旗","御建鸣神主尊旗")</f>
         <v>御建鸣神主尊旗</v>
@@ -13419,8 +13301,8 @@
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="13"/>
       <c r="B300" s="13"/>
-      <c r="C300" s="48"/>
-      <c r="D300" s="48"/>
+      <c r="C300" s="43"/>
+      <c r="D300" s="43"/>
       <c r="E300" s="15" t="str">
         <f>HYPERLINK("#摆设!阵屋枪架—「尖破」","阵屋枪架—「尖破」")</f>
         <v>阵屋枪架—「尖破」</v>
@@ -13453,8 +13335,8 @@
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="13"/>
       <c r="B301" s="13"/>
-      <c r="C301" s="48"/>
-      <c r="D301" s="48"/>
+      <c r="C301" s="43"/>
+      <c r="D301" s="43"/>
       <c r="E301" s="15" t="str">
         <f>HYPERLINK("#摆设!乡野水井—「下索密藏」","乡野水井—「下索密藏」")</f>
         <v>乡野水井—「下索密藏」</v>
@@ -13502,10 +13384,10 @@
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="13"/>
       <c r="B303" s="13"/>
-      <c r="C303" s="51">
+      <c r="C303" s="41">
         <v>25</v>
       </c>
-      <c r="D303" s="47" t="s">
+      <c r="D303" s="44" t="s">
         <v>174</v>
       </c>
       <c r="E303" s="15" t="str">
@@ -13535,15 +13417,15 @@
         <v>168</v>
       </c>
       <c r="M303" s="20"/>
-      <c r="N303" s="49" t="s">
+      <c r="N303" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="13"/>
       <c r="B304" s="13"/>
-      <c r="C304" s="48"/>
-      <c r="D304" s="48"/>
+      <c r="C304" s="43"/>
+      <c r="D304" s="43"/>
       <c r="E304" s="15" t="str">
         <f>HYPERLINK("#摆设!「代宫司之印」","「代宫司之印」")</f>
         <v>「代宫司之印」</v>
@@ -13571,13 +13453,13 @@
         <v>166</v>
       </c>
       <c r="M304" s="20"/>
-      <c r="N304" s="49"/>
+      <c r="N304" s="46"/>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="13"/>
       <c r="B305" s="13"/>
-      <c r="C305" s="48"/>
-      <c r="D305" s="48"/>
+      <c r="C305" s="43"/>
+      <c r="D305" s="43"/>
       <c r="E305" s="15" t="str">
         <f>HYPERLINK("#摆设!寂修石","寂修石")</f>
         <v>寂修石</v>
@@ -13605,13 +13487,13 @@
         <v>166</v>
       </c>
       <c r="M305" s="20"/>
-      <c r="N305" s="49"/>
+      <c r="N305" s="46"/>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="13"/>
       <c r="B306" s="13"/>
-      <c r="C306" s="48"/>
-      <c r="D306" s="48"/>
+      <c r="C306" s="43"/>
+      <c r="D306" s="43"/>
       <c r="E306" s="15" t="str">
         <f>HYPERLINK("#摆设!涉浪石","涉浪石")</f>
         <v>涉浪石</v>
@@ -13639,13 +13521,13 @@
         <v>166</v>
       </c>
       <c r="M306" s="20"/>
-      <c r="N306" s="49"/>
+      <c r="N306" s="46"/>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="13"/>
       <c r="B307" s="13"/>
-      <c r="C307" s="48"/>
-      <c r="D307" s="48"/>
+      <c r="C307" s="43"/>
+      <c r="D307" s="43"/>
       <c r="E307" s="15" t="str">
         <f>HYPERLINK("#摆设!「红鸢问寝觉」","「红鸢问寝觉」")</f>
         <v>「红鸢问寝觉」</v>
@@ -13673,13 +13555,13 @@
         <v>166</v>
       </c>
       <c r="M307" s="20"/>
-      <c r="N307" s="49"/>
+      <c r="N307" s="46"/>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="13"/>
       <c r="B308" s="13"/>
-      <c r="C308" s="48"/>
-      <c r="D308" s="48"/>
+      <c r="C308" s="43"/>
+      <c r="D308" s="43"/>
       <c r="E308" s="15" t="str">
         <f>HYPERLINK("#摆设!「片叶苏芳缀银朱」","「片叶苏芳缀银朱」")</f>
         <v>「片叶苏芳缀银朱」</v>
@@ -13707,13 +13589,13 @@
         <v>166</v>
       </c>
       <c r="M308" s="20"/>
-      <c r="N308" s="49"/>
+      <c r="N308" s="46"/>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="13"/>
       <c r="B309" s="13"/>
-      <c r="C309" s="48"/>
-      <c r="D309" s="48"/>
+      <c r="C309" s="43"/>
+      <c r="D309" s="43"/>
       <c r="E309" s="15" t="str">
         <f>HYPERLINK("#摆设!「影徙露草自伤悼」","「影徙露草自伤悼」")</f>
         <v>「影徙露草自伤悼」</v>
@@ -13741,13 +13623,13 @@
         <v>166</v>
       </c>
       <c r="M309" s="20"/>
-      <c r="N309" s="49"/>
+      <c r="N309" s="46"/>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="13"/>
       <c r="B310" s="13"/>
-      <c r="C310" s="48"/>
-      <c r="D310" s="48"/>
+      <c r="C310" s="43"/>
+      <c r="D310" s="43"/>
       <c r="E310" s="15" t="str">
         <f>HYPERLINK("#摆设!「晚花空言约」","「晚花空言约」")</f>
         <v>「晚花空言约」</v>
@@ -13775,13 +13657,13 @@
         <v>166</v>
       </c>
       <c r="M310" s="20"/>
-      <c r="N310" s="49"/>
+      <c r="N310" s="46"/>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="13"/>
       <c r="B311" s="13"/>
-      <c r="C311" s="48"/>
-      <c r="D311" s="48"/>
+      <c r="C311" s="43"/>
+      <c r="D311" s="43"/>
       <c r="E311" s="15" t="str">
         <f>HYPERLINK("#摆设!鱼脂白烛—「傍明」","鱼脂白烛—「傍明」")</f>
         <v>鱼脂白烛—「傍明」</v>
@@ -13809,13 +13691,13 @@
         <v>120</v>
       </c>
       <c r="M311" s="20"/>
-      <c r="N311" s="49"/>
+      <c r="N311" s="46"/>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="13"/>
       <c r="B312" s="13"/>
-      <c r="C312" s="48"/>
-      <c r="D312" s="48"/>
+      <c r="C312" s="43"/>
+      <c r="D312" s="43"/>
       <c r="E312" s="15" t="str">
         <f>HYPERLINK("#摆设!御伽木郊野路灯","御伽木郊野路灯")</f>
         <v>御伽木郊野路灯</v>
@@ -13843,7 +13725,7 @@
         <v>120</v>
       </c>
       <c r="M312" s="20"/>
-      <c r="N312" s="49"/>
+      <c r="N312" s="46"/>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="13"/>
@@ -13863,10 +13745,10 @@
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="13"/>
       <c r="B314" s="13"/>
-      <c r="C314" s="51">
+      <c r="C314" s="41">
         <v>26</v>
       </c>
-      <c r="D314" s="47" t="s">
+      <c r="D314" s="44" t="s">
         <v>175</v>
       </c>
       <c r="E314" s="15" t="str">
@@ -13896,15 +13778,15 @@
         <v>120</v>
       </c>
       <c r="M314" s="20"/>
-      <c r="N314" s="49" t="s">
+      <c r="N314" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="13"/>
       <c r="B315" s="13"/>
-      <c r="C315" s="48"/>
-      <c r="D315" s="48"/>
+      <c r="C315" s="43"/>
+      <c r="D315" s="43"/>
       <c r="E315" s="15" t="str">
         <f>HYPERLINK("#摆设!祭典「定番」百货屋台","祭典「定番」百货屋台")</f>
         <v>祭典「定番」百货屋台</v>
@@ -13932,13 +13814,13 @@
         <v>120</v>
       </c>
       <c r="M315" s="20"/>
-      <c r="N315" s="49"/>
+      <c r="N315" s="46"/>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" s="13"/>
       <c r="B316" s="13"/>
-      <c r="C316" s="48"/>
-      <c r="D316" s="48"/>
+      <c r="C316" s="43"/>
+      <c r="D316" s="43"/>
       <c r="E316" s="15" t="str">
         <f>HYPERLINK("#摆设!祭典「奇番」百货屋台","祭典「奇番」百货屋台")</f>
         <v>祭典「奇番」百货屋台</v>
@@ -13966,13 +13848,13 @@
         <v>120</v>
       </c>
       <c r="M316" s="20"/>
-      <c r="N316" s="49"/>
+      <c r="N316" s="46"/>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" s="13"/>
       <c r="B317" s="13"/>
-      <c r="C317" s="48"/>
-      <c r="D317" s="48"/>
+      <c r="C317" s="43"/>
+      <c r="D317" s="43"/>
       <c r="E317" s="15" t="str">
         <f>HYPERLINK("#摆设!稻妻民居—「知变易通」","稻妻民居—「知变易通」")</f>
         <v>稻妻民居—「知变易通」</v>
@@ -14000,13 +13882,13 @@
         <v>120</v>
       </c>
       <c r="M317" s="20"/>
-      <c r="N317" s="49"/>
+      <c r="N317" s="46"/>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" s="13"/>
       <c r="B318" s="13"/>
-      <c r="C318" s="48"/>
-      <c r="D318" s="48"/>
+      <c r="C318" s="43"/>
+      <c r="D318" s="43"/>
       <c r="E318" s="15" t="str">
         <f>HYPERLINK("#摆设!「花咲初退红」","「花咲初退红」")</f>
         <v>「花咲初退红」</v>
@@ -14034,13 +13916,13 @@
         <v>166</v>
       </c>
       <c r="M318" s="20"/>
-      <c r="N318" s="49"/>
+      <c r="N318" s="46"/>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" s="13"/>
       <c r="B319" s="13"/>
-      <c r="C319" s="48"/>
-      <c r="D319" s="48"/>
+      <c r="C319" s="43"/>
+      <c r="D319" s="43"/>
       <c r="E319" s="15" t="str">
         <f>HYPERLINK("#摆设!「春惜一斤染」","「春惜一斤染」")</f>
         <v>「春惜一斤染」</v>
@@ -14068,13 +13950,13 @@
         <v>166</v>
       </c>
       <c r="M319" s="20"/>
-      <c r="N319" s="49"/>
+      <c r="N319" s="46"/>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" s="13"/>
       <c r="B320" s="13"/>
-      <c r="C320" s="48"/>
-      <c r="D320" s="48"/>
+      <c r="C320" s="43"/>
+      <c r="D320" s="43"/>
       <c r="E320" s="15" t="str">
         <f>HYPERLINK("#摆设!古法新造御伽木货箱","古法新造御伽木货箱")</f>
         <v>古法新造御伽木货箱</v>
@@ -14102,13 +13984,13 @@
         <v>120</v>
       </c>
       <c r="M320" s="20"/>
-      <c r="N320" s="49"/>
+      <c r="N320" s="46"/>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" s="13"/>
       <c r="B321" s="13"/>
-      <c r="C321" s="48"/>
-      <c r="D321" s="48"/>
+      <c r="C321" s="43"/>
+      <c r="D321" s="43"/>
       <c r="E321" s="15" t="str">
         <f>HYPERLINK("#摆设!乡野水井—「下索密藏」","乡野水井—「下索密藏」")</f>
         <v>乡野水井—「下索密藏」</v>
@@ -14136,13 +14018,13 @@
         <v>117</v>
       </c>
       <c r="M321" s="20"/>
-      <c r="N321" s="49"/>
+      <c r="N321" s="46"/>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" s="13"/>
       <c r="B322" s="13"/>
-      <c r="C322" s="48"/>
-      <c r="D322" s="48"/>
+      <c r="C322" s="43"/>
+      <c r="D322" s="43"/>
       <c r="E322" s="15" t="str">
         <f>HYPERLINK("#摆设!五重灯笼祭典门关","五重灯笼祭典门关")</f>
         <v>五重灯笼祭典门关</v>
@@ -14170,13 +14052,13 @@
         <v>120</v>
       </c>
       <c r="M322" s="20"/>
-      <c r="N322" s="49"/>
+      <c r="N322" s="46"/>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" s="13"/>
       <c r="B323" s="13"/>
-      <c r="C323" s="48"/>
-      <c r="D323" s="48"/>
+      <c r="C323" s="43"/>
+      <c r="D323" s="43"/>
       <c r="E323" s="15" t="str">
         <f>HYPERLINK("#摆设!御伽木「乐至」方凳","御伽木「乐至」方凳")</f>
         <v>御伽木「乐至」方凳</v>
@@ -14204,13 +14086,13 @@
         <v>120</v>
       </c>
       <c r="M323" s="20"/>
-      <c r="N323" s="49"/>
+      <c r="N323" s="46"/>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" s="13"/>
       <c r="B324" s="13"/>
-      <c r="C324" s="48"/>
-      <c r="D324" s="48"/>
+      <c r="C324" s="43"/>
+      <c r="D324" s="43"/>
       <c r="E324" s="15" t="str">
         <f>HYPERLINK("#摆设!御伽木「乐至」方桌","御伽木「乐至」方桌")</f>
         <v>御伽木「乐至」方桌</v>
@@ -14238,13 +14120,13 @@
         <v>120</v>
       </c>
       <c r="M324" s="20"/>
-      <c r="N324" s="49"/>
+      <c r="N324" s="46"/>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" s="13"/>
       <c r="B325" s="13"/>
-      <c r="C325" s="48"/>
-      <c r="D325" s="48"/>
+      <c r="C325" s="43"/>
+      <c r="D325" s="43"/>
       <c r="E325" s="15" t="str">
         <f>HYPERLINK("#摆设!铸石地基—「修身砥行」","铸石地基—「修身砥行」")</f>
         <v>铸石地基—「修身砥行」</v>
@@ -14272,7 +14154,7 @@
         <v>117</v>
       </c>
       <c r="M325" s="20"/>
-      <c r="N325" s="49"/>
+      <c r="N325" s="46"/>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" s="13"/>
@@ -14293,10 +14175,10 @@
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" s="13"/>
       <c r="B327" s="13"/>
-      <c r="C327" s="51">
+      <c r="C327" s="41">
         <v>27</v>
       </c>
-      <c r="D327" s="47" t="s">
+      <c r="D327" s="44" t="s">
         <v>176</v>
       </c>
       <c r="E327" s="15" t="str">
@@ -14326,15 +14208,15 @@
         <v>177</v>
       </c>
       <c r="M327" s="20"/>
-      <c r="N327" s="49" t="s">
+      <c r="N327" s="46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" s="13"/>
       <c r="B328" s="13"/>
-      <c r="C328" s="48"/>
-      <c r="D328" s="48"/>
+      <c r="C328" s="43"/>
+      <c r="D328" s="43"/>
       <c r="E328" s="15" t="str">
         <f>HYPERLINK("#摆设!花伞铺—「异梦绮彩」","花伞铺—「异梦绮彩」")</f>
         <v>花伞铺—「异梦绮彩」</v>
@@ -14362,13 +14244,13 @@
         <v>120</v>
       </c>
       <c r="M328" s="20"/>
-      <c r="N328" s="49"/>
+      <c r="N328" s="46"/>
     </row>
     <row r="329" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="13"/>
       <c r="B329" s="13"/>
-      <c r="C329" s="48"/>
-      <c r="D329" s="48"/>
+      <c r="C329" s="43"/>
+      <c r="D329" s="43"/>
       <c r="E329" s="15" t="str">
         <f>HYPERLINK("#摆设!果蔬摊—「纯诚之味」","果蔬摊—「纯诚之味」")</f>
         <v>果蔬摊—「纯诚之味」</v>
@@ -14396,13 +14278,13 @@
         <v>120</v>
       </c>
       <c r="M329" s="20"/>
-      <c r="N329" s="49"/>
+      <c r="N329" s="46"/>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
-      <c r="C330" s="48"/>
-      <c r="D330" s="48"/>
+      <c r="C330" s="43"/>
+      <c r="D330" s="43"/>
       <c r="E330" s="15" t="str">
         <f>HYPERLINK("#摆设!孔雀木「幸归」面具架","孔雀木「幸归」面具架")</f>
         <v>孔雀木「幸归」面具架</v>
@@ -14430,13 +14312,13 @@
         <v>120</v>
       </c>
       <c r="M330" s="20"/>
-      <c r="N330" s="49"/>
+      <c r="N330" s="46"/>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
-      <c r="C331" s="48"/>
-      <c r="D331" s="48"/>
+      <c r="C331" s="43"/>
+      <c r="D331" s="43"/>
       <c r="E331" s="15" t="str">
         <f>HYPERLINK("#摆设!稻妻商铺—「千瑜百珉」","稻妻商铺—「千瑜百珉」")</f>
         <v>稻妻商铺—「千瑜百珉」</v>
@@ -14464,13 +14346,13 @@
         <v>120</v>
       </c>
       <c r="M331" s="20"/>
-      <c r="N331" s="49"/>
+      <c r="N331" s="46"/>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
-      <c r="C332" s="48"/>
-      <c r="D332" s="48"/>
+      <c r="C332" s="43"/>
+      <c r="D332" s="43"/>
       <c r="E332" s="15" t="str">
         <f>HYPERLINK("#摆设!稻妻民居—「三世共业」","稻妻民居—「三世共业」")</f>
         <v>稻妻民居—「三世共业」</v>
@@ -14498,13 +14380,13 @@
         <v>120</v>
       </c>
       <c r="M332" s="20"/>
-      <c r="N332" s="49"/>
+      <c r="N332" s="46"/>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
-      <c r="C333" s="48"/>
-      <c r="D333" s="48"/>
+      <c r="C333" s="43"/>
+      <c r="D333" s="43"/>
       <c r="E333" s="15" t="str">
         <f>HYPERLINK("#摆设!「红鸢问寝觉」","「红鸢问寝觉」")</f>
         <v>「红鸢问寝觉」</v>
@@ -14532,13 +14414,13 @@
         <v>166</v>
       </c>
       <c r="M333" s="20"/>
-      <c r="N333" s="49"/>
+      <c r="N333" s="46"/>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
-      <c r="C334" s="48"/>
-      <c r="D334" s="48"/>
+      <c r="C334" s="43"/>
+      <c r="D334" s="43"/>
       <c r="E334" s="15" t="str">
         <f>HYPERLINK("#摆设!「片叶苏芳缀银朱」","「片叶苏芳缀银朱」")</f>
         <v>「片叶苏芳缀银朱」</v>
@@ -14566,13 +14448,13 @@
         <v>166</v>
       </c>
       <c r="M334" s="20"/>
-      <c r="N334" s="49"/>
+      <c r="N334" s="46"/>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
-      <c r="C335" s="48"/>
-      <c r="D335" s="48"/>
+      <c r="C335" s="43"/>
+      <c r="D335" s="43"/>
       <c r="E335" s="15" t="str">
         <f>HYPERLINK("#摆设!古法新造御伽木货箱","古法新造御伽木货箱")</f>
         <v>古法新造御伽木货箱</v>
@@ -14600,13 +14482,13 @@
         <v>120</v>
       </c>
       <c r="M335" s="20"/>
-      <c r="N335" s="49"/>
+      <c r="N335" s="46"/>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
-      <c r="C336" s="48"/>
-      <c r="D336" s="48"/>
+      <c r="C336" s="43"/>
+      <c r="D336" s="43"/>
       <c r="E336" s="15" t="str">
         <f>HYPERLINK("#摆设!乡野水井—「下索密藏」","乡野水井—「下索密藏」")</f>
         <v>乡野水井—「下索密藏」</v>
@@ -14634,13 +14516,13 @@
         <v>117</v>
       </c>
       <c r="M336" s="20"/>
-      <c r="N336" s="49"/>
+      <c r="N336" s="46"/>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
-      <c r="C337" s="48"/>
-      <c r="D337" s="48"/>
+      <c r="C337" s="43"/>
+      <c r="D337" s="43"/>
       <c r="E337" s="15" t="str">
         <f>HYPERLINK("#摆设!五重灯笼祭典门关","五重灯笼祭典门关")</f>
         <v>五重灯笼祭典门关</v>
@@ -14668,13 +14550,13 @@
         <v>120</v>
       </c>
       <c r="M337" s="20"/>
-      <c r="N337" s="49"/>
+      <c r="N337" s="46"/>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
-      <c r="C338" s="48"/>
-      <c r="D338" s="48"/>
+      <c r="C338" s="43"/>
+      <c r="D338" s="43"/>
       <c r="E338" s="15" t="str">
         <f>HYPERLINK("#摆设!御伽木简本路灯","御伽木简本路灯")</f>
         <v>御伽木简本路灯</v>
@@ -14702,13 +14584,13 @@
         <v>120</v>
       </c>
       <c r="M338" s="20"/>
-      <c r="N338" s="49"/>
+      <c r="N338" s="46"/>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
-      <c r="C339" s="48"/>
-      <c r="D339" s="48"/>
+      <c r="C339" s="43"/>
+      <c r="D339" s="43"/>
       <c r="E339" s="15" t="str">
         <f>HYPERLINK("#摆设!铸石地基—「修身砥行」","铸石地基—「修身砥行」")</f>
         <v>铸石地基—「修身砥行」</v>
@@ -14736,7 +14618,7 @@
         <v>117</v>
       </c>
       <c r="M339" s="20"/>
-      <c r="N339" s="49"/>
+      <c r="N339" s="46"/>
     </row>
     <row r="340" spans="1:14" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
@@ -14756,21 +14638,36 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1"/>
   <mergeCells count="61">
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="C15:C28"/>
-    <mergeCell ref="C30:C41"/>
-    <mergeCell ref="C43:C54"/>
-    <mergeCell ref="C56:C68"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="C78:C86"/>
-    <mergeCell ref="C88:C94"/>
-    <mergeCell ref="C96:C105"/>
-    <mergeCell ref="C107:C116"/>
-    <mergeCell ref="C118:C127"/>
-    <mergeCell ref="C129:C141"/>
-    <mergeCell ref="C143:C151"/>
-    <mergeCell ref="C153:C167"/>
-    <mergeCell ref="C169:C182"/>
+    <mergeCell ref="D327:D339"/>
+    <mergeCell ref="N96:N105"/>
+    <mergeCell ref="N242:N250"/>
+    <mergeCell ref="N262:N272"/>
+    <mergeCell ref="N274:N287"/>
+    <mergeCell ref="N303:N312"/>
+    <mergeCell ref="N314:N325"/>
+    <mergeCell ref="N327:N339"/>
+    <mergeCell ref="D242:D250"/>
+    <mergeCell ref="D252:D262"/>
+    <mergeCell ref="D264:D272"/>
+    <mergeCell ref="D274:D287"/>
+    <mergeCell ref="D289:D301"/>
+    <mergeCell ref="D169:D182"/>
+    <mergeCell ref="D184:D199"/>
+    <mergeCell ref="D201:D218"/>
+    <mergeCell ref="D220:D229"/>
+    <mergeCell ref="D231:D240"/>
+    <mergeCell ref="C314:C325"/>
+    <mergeCell ref="C264:C272"/>
+    <mergeCell ref="C274:C287"/>
+    <mergeCell ref="C289:C301"/>
+    <mergeCell ref="C303:C312"/>
+    <mergeCell ref="D303:D312"/>
+    <mergeCell ref="D314:D325"/>
+    <mergeCell ref="C184:C199"/>
+    <mergeCell ref="C201:C218"/>
+    <mergeCell ref="C220:C229"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="C242:C250"/>
     <mergeCell ref="C327:C339"/>
     <mergeCell ref="D2:D13"/>
     <mergeCell ref="D15:D28"/>
@@ -14787,36 +14684,21 @@
     <mergeCell ref="D143:D151"/>
     <mergeCell ref="D153:D167"/>
     <mergeCell ref="C252:C262"/>
-    <mergeCell ref="C184:C199"/>
-    <mergeCell ref="C201:C218"/>
-    <mergeCell ref="C220:C229"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="C242:C250"/>
-    <mergeCell ref="D220:D229"/>
-    <mergeCell ref="D231:D240"/>
-    <mergeCell ref="C314:C325"/>
-    <mergeCell ref="C264:C272"/>
-    <mergeCell ref="C274:C287"/>
-    <mergeCell ref="C289:C301"/>
-    <mergeCell ref="C303:C312"/>
-    <mergeCell ref="D303:D312"/>
-    <mergeCell ref="D314:D325"/>
-    <mergeCell ref="D327:D339"/>
-    <mergeCell ref="N96:N105"/>
-    <mergeCell ref="N242:N250"/>
-    <mergeCell ref="N262:N272"/>
-    <mergeCell ref="N274:N287"/>
-    <mergeCell ref="N303:N312"/>
-    <mergeCell ref="N314:N325"/>
-    <mergeCell ref="N327:N339"/>
-    <mergeCell ref="D242:D250"/>
-    <mergeCell ref="D252:D262"/>
-    <mergeCell ref="D264:D272"/>
-    <mergeCell ref="D274:D287"/>
-    <mergeCell ref="D289:D301"/>
-    <mergeCell ref="D169:D182"/>
-    <mergeCell ref="D184:D199"/>
-    <mergeCell ref="D201:D218"/>
+    <mergeCell ref="C118:C127"/>
+    <mergeCell ref="C129:C141"/>
+    <mergeCell ref="C143:C151"/>
+    <mergeCell ref="C153:C167"/>
+    <mergeCell ref="C169:C182"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="C78:C86"/>
+    <mergeCell ref="C88:C94"/>
+    <mergeCell ref="C96:C105"/>
+    <mergeCell ref="C107:C116"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="C15:C28"/>
+    <mergeCell ref="C30:C41"/>
+    <mergeCell ref="C43:C54"/>
+    <mergeCell ref="C56:C68"/>
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <conditionalFormatting sqref="F289:F301 F303:F312 F314:F325 F327:F339 F274:F287 F264:F272 F252:F262 F242:F250 F231:F240 F220:F229 F201:F218 F184:F199 F169:F182 F153:F167 F143:F151 F129:F141 F118:F127 F107:F116 F96:F105 F88:F94 F78:F86 F70:F76 F56:F68 F43:F54 F30:F41 F15:F28 F2:F13">
@@ -14832,7 +14714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E204" sqref="E204"/>
     </sheetView>
@@ -23395,10 +23277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23406,19 +23288,19 @@
     <col min="2" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="47" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -23427,109 +23309,72 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.21</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="J2" s="41" t="s">
-        <v>415</v>
-      </c>
-      <c r="K2" s="42">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J3" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="K3" s="44">
-        <v>1436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="50" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="J4" s="43" t="s">
-        <v>417</v>
-      </c>
-      <c r="K4" s="44">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="J5" s="43" t="s">
-        <v>414</v>
-      </c>
-      <c r="K5" s="44">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="J6" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="K6" s="46">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23539,7 +23384,8 @@
   </mergeCells>
   <phoneticPr fontId="17" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{6884163C-5A85-4091-AD46-A3548CA65715}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://wwn.lanzoul.com/b030s2ahg_x000a_1lxw" xr:uid="{6884163C-5A85-4091-AD46-A3548CA65715}"/>
+    <hyperlink ref="A4:H8" r:id="rId2" display="密码：1lxw" xr:uid="{B2E9E753-86D2-441D-BE35-21BB2E2A5509}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
